--- a/document/交易大盘数据库设计表@20180228.xlsx
+++ b/document/交易大盘数据库设计表@20180228.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\iqmkj_idea\jydp\document\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="9945" activeTab="3"/>
+    <workbookView xWindow="1236" yWindow="0" windowWidth="22956" windowHeight="9948"/>
   </bookViews>
   <sheets>
     <sheet name="用户系统" sheetId="1" r:id="rId1"/>
@@ -239,9 +244,6 @@
   </si>
   <si>
     <t>用户认证id</t>
-  </si>
-  <si>
-    <t>imageUrl</t>
   </si>
   <si>
     <t>用户认证详情图地址</t>
@@ -876,12 +878,16 @@
   <si>
     <t>帮助内容</t>
   </si>
+  <si>
+    <t>imageUrl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="宋体"/>
@@ -933,6 +939,13 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1066,7 +1079,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1198,6 +1211,12 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1225,10 +1244,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1240,6 +1256,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1502,26 +1521,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="49.375" customWidth="1"/>
-    <col min="3" max="3" width="27.5" customWidth="1"/>
-    <col min="4" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="6.125" customWidth="1"/>
-    <col min="7" max="7" width="8.375" customWidth="1"/>
-    <col min="8" max="8" width="6.125" customWidth="1"/>
-    <col min="9" max="10" width="8.375" customWidth="1"/>
-    <col min="11" max="11" width="57.5" customWidth="1"/>
+    <col min="2" max="2" width="49.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" customWidth="1"/>
+    <col min="4" max="5" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" customWidth="1"/>
+    <col min="8" max="8" width="6.109375" customWidth="1"/>
+    <col min="9" max="10" width="8.33203125" customWidth="1"/>
+    <col min="11" max="11" width="57.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="14.25" customHeight="1">
+    <row r="2" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
@@ -1530,14 +1549,14 @@
       </c>
       <c r="D2" s="44"/>
       <c r="E2" s="44"/>
-      <c r="F2" s="45"/>
+      <c r="F2" s="47"/>
       <c r="G2" s="44"/>
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
       <c r="J2" s="44"/>
       <c r="K2" s="44"/>
     </row>
-    <row r="3" spans="2:11" ht="14.25" customHeight="1">
+    <row r="3" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1569,7 +1588,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="14.25" customHeight="1">
+    <row r="4" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
@@ -1597,7 +1616,7 @@
       <c r="J4" s="8"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="2:11" ht="14.25" customHeight="1">
+    <row r="5" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>16</v>
       </c>
@@ -1621,7 +1640,7 @@
       <c r="J5" s="8"/>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="2:11" ht="14.25" customHeight="1">
+    <row r="6" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
@@ -1643,7 +1662,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="2:11" ht="14.25" customHeight="1">
+    <row r="7" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>20</v>
       </c>
@@ -1665,7 +1684,7 @@
       <c r="J7" s="8"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="2:11" ht="14.25" customHeight="1">
+    <row r="8" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
@@ -1675,21 +1694,21 @@
       <c r="D8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="8">
-        <v>16</v>
+      <c r="E8" s="56">
+        <v>6</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="54" t="s">
+      <c r="I8" s="45" t="s">
         <v>15</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="2:11" ht="14.25" customHeight="1">
+    <row r="9" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>24</v>
       </c>
@@ -1699,19 +1718,19 @@
       <c r="D9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="8">
-        <v>32</v>
+      <c r="E9" s="56">
+        <v>11</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
-      <c r="I9" s="55"/>
+      <c r="I9" s="46"/>
       <c r="J9" s="8"/>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="2:11" ht="14.25" customHeight="1">
+    <row r="10" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>26</v>
       </c>
@@ -1737,7 +1756,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="14.25" customHeight="1">
+    <row r="11" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
         <v>31</v>
       </c>
@@ -1763,7 +1782,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="13.5" customHeight="1">
+    <row r="12" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
         <v>33</v>
       </c>
@@ -1789,7 +1808,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="14.25" customHeight="1">
+    <row r="13" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>37</v>
       </c>
@@ -1809,7 +1828,7 @@
       <c r="J13" s="8"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="2:11" ht="14.25" customHeight="1">
+    <row r="14" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
       <c r="C14" s="29"/>
       <c r="D14" s="30"/>
@@ -1821,23 +1840,23 @@
       <c r="J14" s="30"/>
       <c r="K14" s="41"/>
     </row>
-    <row r="15" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="15" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="48"/>
-    </row>
-    <row r="16" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="50"/>
+    </row>
+    <row r="16" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>2</v>
       </c>
@@ -1869,7 +1888,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="17" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
         <v>42</v>
       </c>
@@ -1897,7 +1916,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="27" customFormat="1" ht="15" customHeight="1">
+    <row r="18" spans="1:12" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="6" t="s">
         <v>12</v>
@@ -1923,7 +1942,7 @@
       <c r="K18" s="24"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="19" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
         <v>44</v>
       </c>
@@ -1947,7 +1966,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="20" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
         <v>47</v>
       </c>
@@ -1969,7 +1988,7 @@
       <c r="J20" s="8"/>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="21" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
         <v>49</v>
       </c>
@@ -1989,7 +2008,7 @@
       <c r="J21" s="8"/>
       <c r="K21" s="7"/>
     </row>
-    <row r="22" spans="1:12" ht="14.25" customHeight="1">
+    <row r="22" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="15"/>
       <c r="C22" s="16"/>
       <c r="D22" s="17"/>
@@ -2001,23 +2020,23 @@
       <c r="J22" s="17"/>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="1:12" ht="14.25" customHeight="1">
+    <row r="23" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="49" t="s">
+      <c r="C23" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="51"/>
-    </row>
-    <row r="24" spans="1:12" ht="14.25" customHeight="1">
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="53"/>
+    </row>
+    <row r="24" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>2</v>
       </c>
@@ -2049,7 +2068,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="14.25" customHeight="1">
+    <row r="25" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
         <v>53</v>
       </c>
@@ -2077,7 +2096,7 @@
       <c r="J25" s="23"/>
       <c r="K25" s="7"/>
     </row>
-    <row r="26" spans="1:12" ht="14.25" customHeight="1">
+    <row r="26" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>12</v>
       </c>
@@ -2101,7 +2120,7 @@
       <c r="J26" s="8"/>
       <c r="K26" s="24"/>
     </row>
-    <row r="27" spans="1:12" ht="14.25" customHeight="1">
+    <row r="27" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
         <v>16</v>
       </c>
@@ -2123,7 +2142,7 @@
       <c r="J27" s="8"/>
       <c r="K27" s="7"/>
     </row>
-    <row r="28" spans="1:12" ht="14.25" customHeight="1">
+    <row r="28" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>56</v>
       </c>
@@ -2145,7 +2164,7 @@
       <c r="J28" s="8"/>
       <c r="K28" s="7"/>
     </row>
-    <row r="29" spans="1:12" ht="14.25" customHeight="1">
+    <row r="29" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
         <v>58</v>
       </c>
@@ -2155,8 +2174,8 @@
       <c r="D29" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="8">
-        <v>11</v>
+      <c r="E29" s="56">
+        <v>20</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>15</v>
@@ -2167,7 +2186,7 @@
       <c r="J29" s="8"/>
       <c r="K29" s="7"/>
     </row>
-    <row r="30" spans="1:12" ht="14.25" customHeight="1">
+    <row r="30" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
         <v>60</v>
       </c>
@@ -2189,7 +2208,7 @@
       <c r="J30" s="8"/>
       <c r="K30" s="7"/>
     </row>
-    <row r="31" spans="1:12" ht="14.25" customHeight="1">
+    <row r="31" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
         <v>62</v>
       </c>
@@ -2217,7 +2236,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="14.25" customHeight="1">
+    <row r="32" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
         <v>65</v>
       </c>
@@ -2237,7 +2256,7 @@
       <c r="J32" s="8"/>
       <c r="K32" s="42"/>
     </row>
-    <row r="33" spans="2:11" ht="14.25" customHeight="1">
+    <row r="33" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
         <v>66</v>
       </c>
@@ -2255,7 +2274,7 @@
       <c r="J33" s="12"/>
       <c r="K33" s="19"/>
     </row>
-    <row r="34" spans="2:11" ht="14.25" customHeight="1">
+    <row r="34" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
         <v>37</v>
       </c>
@@ -2275,7 +2294,7 @@
       <c r="J34" s="12"/>
       <c r="K34" s="19"/>
     </row>
-    <row r="36" spans="2:11" ht="14.25" customHeight="1">
+    <row r="36" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="9" t="s">
         <v>69</v>
       </c>
@@ -2291,7 +2310,7 @@
       <c r="J36" s="14"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="2:11" ht="14.25" customHeight="1">
+    <row r="37" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
         <v>2</v>
       </c>
@@ -2323,7 +2342,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="2:11" ht="14.25" customHeight="1">
+    <row r="38" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
         <v>53</v>
       </c>
@@ -2351,7 +2370,7 @@
       <c r="J38" s="8"/>
       <c r="K38" s="7"/>
     </row>
-    <row r="39" spans="2:11" ht="14.25" customHeight="1">
+    <row r="39" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
         <v>72</v>
       </c>
@@ -2375,12 +2394,12 @@
       <c r="J39" s="8"/>
       <c r="K39" s="7"/>
     </row>
-    <row r="40" spans="2:11" ht="14.25" customHeight="1">
+    <row r="40" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>17</v>
@@ -2397,12 +2416,12 @@
       <c r="J40" s="8"/>
       <c r="K40" s="7"/>
     </row>
-    <row r="41" spans="2:11" ht="14.25" customHeight="1">
+    <row r="41" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>39</v>
@@ -2417,24 +2436,24 @@
       <c r="J41" s="8"/>
       <c r="K41" s="7"/>
     </row>
-    <row r="42" spans="2:11" ht="13.5" customHeight="1"/>
-    <row r="43" spans="2:11" ht="14.25" customHeight="1">
+    <row r="42" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="C43" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="D43" s="52"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="52"/>
-      <c r="J43" s="52"/>
-      <c r="K43" s="52"/>
-    </row>
-    <row r="44" spans="2:11" ht="14.25" customHeight="1">
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="54"/>
+      <c r="K43" s="54"/>
+    </row>
+    <row r="44" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="32" t="s">
         <v>2</v>
       </c>
@@ -2466,12 +2485,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="2:11" ht="14.25" customHeight="1">
+    <row r="45" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="34" t="s">
         <v>79</v>
-      </c>
-      <c r="C45" s="34" t="s">
-        <v>80</v>
       </c>
       <c r="D45" s="35" t="s">
         <v>17</v>
@@ -2491,10 +2510,10 @@
       </c>
       <c r="J45" s="35"/>
       <c r="K45" s="43" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" ht="14.25" customHeight="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="34" t="s">
         <v>12</v>
       </c>
@@ -2518,12 +2537,12 @@
       <c r="J46" s="35"/>
       <c r="K46" s="43"/>
     </row>
-    <row r="47" spans="2:11" ht="14.25" customHeight="1">
+    <row r="47" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" s="36" t="s">
         <v>82</v>
-      </c>
-      <c r="C47" s="36" t="s">
-        <v>83</v>
       </c>
       <c r="D47" s="35" t="s">
         <v>17</v>
@@ -2542,12 +2561,12 @@
       <c r="J47" s="35"/>
       <c r="K47" s="36"/>
     </row>
-    <row r="48" spans="2:11" ht="14.25" customHeight="1">
+    <row r="48" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" s="36" t="s">
         <v>84</v>
-      </c>
-      <c r="C48" s="36" t="s">
-        <v>85</v>
       </c>
       <c r="D48" s="35" t="s">
         <v>14</v>
@@ -2563,15 +2582,15 @@
       <c r="I48" s="35"/>
       <c r="J48" s="35"/>
       <c r="K48" s="36" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="37" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="49" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B49" s="37" t="s">
+      <c r="C49" s="38" t="s">
         <v>87</v>
-      </c>
-      <c r="C49" s="38" t="s">
-        <v>88</v>
       </c>
       <c r="D49" s="39" t="s">
         <v>17</v>
@@ -2588,12 +2607,12 @@
       <c r="J49" s="35"/>
       <c r="K49" s="36"/>
     </row>
-    <row r="50" spans="2:11" ht="14.25" customHeight="1">
+    <row r="50" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50" s="36" t="s">
         <v>89</v>
-      </c>
-      <c r="C50" s="36" t="s">
-        <v>90</v>
       </c>
       <c r="D50" s="35" t="s">
         <v>28</v>
@@ -2612,12 +2631,12 @@
       </c>
       <c r="K50" s="36"/>
     </row>
-    <row r="51" spans="2:11" ht="14.25" customHeight="1">
+    <row r="51" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="C51" s="36" t="s">
         <v>91</v>
-      </c>
-      <c r="C51" s="36" t="s">
-        <v>92</v>
       </c>
       <c r="D51" s="35" t="s">
         <v>28</v>
@@ -2636,7 +2655,7 @@
       </c>
       <c r="K51" s="36"/>
     </row>
-    <row r="52" spans="2:11" ht="14.25" customHeight="1">
+    <row r="52" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="34" t="s">
         <v>65</v>
       </c>
@@ -2657,15 +2676,15 @@
       <c r="I52" s="35"/>
       <c r="J52" s="35"/>
       <c r="K52" s="36" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11" ht="14.25" customHeight="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="34" t="s">
         <v>37</v>
       </c>
       <c r="C53" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D53" s="35" t="s">
         <v>39</v>
@@ -2680,23 +2699,23 @@
       <c r="J53" s="35"/>
       <c r="K53" s="36"/>
     </row>
-    <row r="55" spans="2:11" ht="14.25" customHeight="1">
+    <row r="55" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C55" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="C55" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="D55" s="50"/>
-      <c r="E55" s="50"/>
-      <c r="F55" s="50"/>
-      <c r="G55" s="50"/>
-      <c r="H55" s="50"/>
-      <c r="I55" s="50"/>
-      <c r="J55" s="50"/>
-      <c r="K55" s="51"/>
-    </row>
-    <row r="56" spans="2:11" ht="14.25" customHeight="1">
+      <c r="D55" s="52"/>
+      <c r="E55" s="52"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="52"/>
+      <c r="H55" s="52"/>
+      <c r="I55" s="52"/>
+      <c r="J55" s="52"/>
+      <c r="K55" s="53"/>
+    </row>
+    <row r="56" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="4" t="s">
         <v>2</v>
       </c>
@@ -2728,7 +2747,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="2:11" ht="14.25" customHeight="1">
+    <row r="57" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="6" t="s">
         <v>53</v>
       </c>
@@ -2756,7 +2775,7 @@
       <c r="J57" s="8"/>
       <c r="K57" s="7"/>
     </row>
-    <row r="58" spans="2:11" ht="14.25" customHeight="1">
+    <row r="58" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="6" t="s">
         <v>12</v>
       </c>
@@ -2780,12 +2799,12 @@
       <c r="J58" s="8"/>
       <c r="K58" s="24"/>
     </row>
-    <row r="59" spans="2:11" ht="14.25" customHeight="1">
+    <row r="59" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>17</v>
@@ -2802,12 +2821,12 @@
       <c r="J59" s="8"/>
       <c r="K59" s="7"/>
     </row>
-    <row r="60" spans="2:11" ht="14.25" customHeight="1">
+    <row r="60" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C60" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>17</v>
@@ -2824,12 +2843,12 @@
       <c r="J60" s="8"/>
       <c r="K60" s="7"/>
     </row>
-    <row r="61" spans="2:11" ht="14.25" customHeight="1">
+    <row r="61" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C61" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>17</v>
@@ -2846,12 +2865,12 @@
       <c r="J61" s="8"/>
       <c r="K61" s="7"/>
     </row>
-    <row r="62" spans="2:11" ht="14.25" customHeight="1">
+    <row r="62" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>39</v>
@@ -2866,12 +2885,12 @@
       <c r="J62" s="12"/>
       <c r="K62" s="19"/>
     </row>
-    <row r="63" spans="2:11" ht="14.25" customHeight="1">
+    <row r="63" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C63" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>35</v>
@@ -2889,15 +2908,15 @@
         <v>1</v>
       </c>
       <c r="K63" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="6" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="64" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B64" s="6" t="s">
+      <c r="C64" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>17</v>
@@ -2912,12 +2931,12 @@
       <c r="J64" s="8"/>
       <c r="K64" s="7"/>
     </row>
-    <row r="65" spans="2:11" ht="14.25" customHeight="1">
+    <row r="65" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C65" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>17</v>
@@ -2932,12 +2951,12 @@
       <c r="J65" s="8"/>
       <c r="K65" s="7"/>
     </row>
-    <row r="66" spans="2:11" ht="14.25" customHeight="1">
+    <row r="66" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C66" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>39</v>
@@ -2950,12 +2969,12 @@
       <c r="J66" s="8"/>
       <c r="K66" s="7"/>
     </row>
-    <row r="68" spans="2:11" ht="14.25" customHeight="1">
+    <row r="68" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C68" s="44" t="s">
         <v>111</v>
-      </c>
-      <c r="C68" s="44" t="s">
-        <v>112</v>
       </c>
       <c r="D68" s="44"/>
       <c r="E68" s="44"/>
@@ -2966,7 +2985,7 @@
       <c r="J68" s="44"/>
       <c r="K68" s="44"/>
     </row>
-    <row r="69" spans="2:11" ht="14.25" customHeight="1">
+    <row r="69" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="4" t="s">
         <v>2</v>
       </c>
@@ -2998,7 +3017,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="2:11" ht="14.25" customHeight="1">
+    <row r="70" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="6" t="s">
         <v>12</v>
       </c>
@@ -3022,12 +3041,12 @@
       <c r="J70" s="8"/>
       <c r="K70" s="7"/>
     </row>
-    <row r="71" spans="2:11" ht="14.25" customHeight="1">
+    <row r="71" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C71" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>14</v>
@@ -3044,12 +3063,12 @@
       <c r="J71" s="8"/>
       <c r="K71" s="7"/>
     </row>
-    <row r="72" spans="2:11" ht="14.25" customHeight="1">
+    <row r="72" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C72" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>28</v>
@@ -3068,12 +3087,12 @@
       </c>
       <c r="K72" s="7"/>
     </row>
-    <row r="73" spans="2:11" ht="14.25" customHeight="1">
+    <row r="73" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>28</v>
@@ -3092,12 +3111,12 @@
       </c>
       <c r="K73" s="7"/>
     </row>
-    <row r="74" spans="2:11" ht="14.25" customHeight="1">
+    <row r="74" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>39</v>
@@ -3124,32 +3143,32 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.749305555555556" bottom="0.749305555555556" header="0.29930555555555599" footer="0.29930555555555599"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K51"/>
   <sheetViews>
     <sheetView topLeftCell="B25" workbookViewId="0">
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="52.625" customWidth="1"/>
+    <col min="2" max="2" width="52.6640625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="10" width="9.625" customWidth="1"/>
-    <col min="11" max="11" width="47.625" customWidth="1"/>
+    <col min="4" max="10" width="9.6640625" customWidth="1"/>
+    <col min="11" max="11" width="47.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="14.25" customHeight="1">
+    <row r="2" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="44" t="s">
         <v>116</v>
-      </c>
-      <c r="C2" s="44" t="s">
-        <v>117</v>
       </c>
       <c r="D2" s="44"/>
       <c r="E2" s="44"/>
@@ -3160,7 +3179,7 @@
       <c r="J2" s="44"/>
       <c r="K2" s="44"/>
     </row>
-    <row r="3" spans="2:11" ht="14.25" customHeight="1">
+    <row r="3" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -3192,12 +3211,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="14.25" customHeight="1">
+    <row r="4" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>14</v>
@@ -3218,12 +3237,12 @@
       <c r="J4" s="8"/>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="2:11" ht="14.25" customHeight="1">
+    <row r="5" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>17</v>
@@ -3240,12 +3259,12 @@
       <c r="J5" s="8"/>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="2:11" ht="14.25" customHeight="1">
+    <row r="6" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>35</v>
@@ -3261,15 +3280,15 @@
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="7" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>14</v>
@@ -3285,15 +3304,15 @@
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="14.25" customHeight="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>39</v>
@@ -3308,7 +3327,7 @@
       <c r="J8" s="8"/>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="2:11" ht="13.5" customHeight="1">
+    <row r="9" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -3320,23 +3339,23 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="2:11" ht="14.25" customHeight="1">
+    <row r="10" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="C10" s="49" t="s">
-        <v>129</v>
-      </c>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="51"/>
-    </row>
-    <row r="11" spans="2:11" ht="14.25" customHeight="1">
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="53"/>
+    </row>
+    <row r="11" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
@@ -3368,12 +3387,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="14.25" customHeight="1">
+    <row r="12" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>14</v>
@@ -3396,12 +3415,12 @@
       <c r="J12" s="8"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="2:11" ht="14.25" customHeight="1">
+    <row r="13" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>17</v>
@@ -3418,12 +3437,12 @@
       <c r="J13" s="8"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="2:11" ht="14.25" customHeight="1">
+    <row r="14" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>39</v>
@@ -3438,7 +3457,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="19"/>
     </row>
-    <row r="15" spans="2:11" ht="13.5" customHeight="1">
+    <row r="15" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -3450,12 +3469,12 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11" ht="14.25" customHeight="1">
+    <row r="16" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="44" t="s">
         <v>134</v>
-      </c>
-      <c r="C16" s="44" t="s">
-        <v>135</v>
       </c>
       <c r="D16" s="44"/>
       <c r="E16" s="44"/>
@@ -3466,7 +3485,7 @@
       <c r="J16" s="44"/>
       <c r="K16" s="44"/>
     </row>
-    <row r="17" spans="2:11" ht="14.25" customHeight="1">
+    <row r="17" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>2</v>
       </c>
@@ -3498,12 +3517,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="14.25" customHeight="1">
+    <row r="18" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>14</v>
@@ -3524,15 +3543,15 @@
       <c r="J18" s="8"/>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="2:11" s="26" customFormat="1" ht="15.6" customHeight="1">
+    <row r="19" spans="2:11" s="26" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="D19" s="8" t="s">
         <v>137</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>138</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8" t="s">
@@ -3543,15 +3562,15 @@
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" ht="14.25" customHeight="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>39</v>
@@ -3566,7 +3585,7 @@
       <c r="J20" s="8"/>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="2:11" ht="13.5" customHeight="1">
+    <row r="21" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -3578,12 +3597,12 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="14.25" customHeight="1">
+    <row r="22" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" s="44" t="s">
         <v>140</v>
-      </c>
-      <c r="C22" s="44" t="s">
-        <v>141</v>
       </c>
       <c r="D22" s="44"/>
       <c r="E22" s="44"/>
@@ -3594,7 +3613,7 @@
       <c r="J22" s="44"/>
       <c r="K22" s="44"/>
     </row>
-    <row r="23" spans="2:11" ht="14.25" customHeight="1">
+    <row r="23" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>2</v>
       </c>
@@ -3626,15 +3645,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:11" ht="14.25" customHeight="1">
+    <row r="24" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="D24" s="8" t="s">
         <v>143</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>144</v>
       </c>
       <c r="E24" s="8">
         <v>11</v>
@@ -3654,12 +3673,12 @@
       <c r="J24" s="8"/>
       <c r="K24" s="7"/>
     </row>
-    <row r="25" spans="2:11" ht="14.25" customHeight="1">
+    <row r="25" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>17</v>
@@ -3678,12 +3697,12 @@
       <c r="J25" s="8"/>
       <c r="K25" s="7"/>
     </row>
-    <row r="26" spans="2:11" ht="14.25" customHeight="1">
+    <row r="26" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>17</v>
@@ -3698,7 +3717,7 @@
       <c r="J26" s="8"/>
       <c r="K26" s="7"/>
     </row>
-    <row r="27" spans="2:11" ht="14.25" customHeight="1">
+    <row r="27" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
         <v>18</v>
       </c>
@@ -3720,12 +3739,12 @@
       <c r="J27" s="8"/>
       <c r="K27" s="7"/>
     </row>
-    <row r="28" spans="2:11" ht="14.25" customHeight="1">
+    <row r="28" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>14</v>
@@ -3742,7 +3761,7 @@
       <c r="J28" s="8"/>
       <c r="K28" s="7"/>
     </row>
-    <row r="29" spans="2:11" ht="13.5" customHeight="1">
+    <row r="29" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>33</v>
       </c>
@@ -3768,12 +3787,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="2:11" ht="14.25" customHeight="1">
+    <row r="30" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>39</v>
@@ -3788,7 +3807,7 @@
       <c r="J30" s="8"/>
       <c r="K30" s="7"/>
     </row>
-    <row r="31" spans="2:11" ht="13.5" customHeight="1">
+    <row r="31" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -3800,23 +3819,23 @@
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="2:11" ht="14.25" customHeight="1">
+    <row r="32" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C32" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="C32" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="51"/>
-    </row>
-    <row r="33" spans="2:11" ht="14.25" customHeight="1">
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="53"/>
+    </row>
+    <row r="33" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
         <v>2</v>
       </c>
@@ -3848,7 +3867,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="2:11" s="27" customFormat="1" ht="14.25" customHeight="1">
+    <row r="34" spans="2:11" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
         <v>42</v>
       </c>
@@ -3876,12 +3895,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="2:11" ht="14.25" customHeight="1">
+    <row r="35" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>14</v>
@@ -3898,12 +3917,12 @@
       <c r="J35" s="8"/>
       <c r="K35" s="7"/>
     </row>
-    <row r="36" spans="2:11" ht="14.25" customHeight="1">
+    <row r="36" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>17</v>
@@ -3920,7 +3939,7 @@
       <c r="J36" s="8"/>
       <c r="K36" s="7"/>
     </row>
-    <row r="37" spans="2:11" ht="14.25" customHeight="1">
+    <row r="37" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
         <v>47</v>
       </c>
@@ -3942,7 +3961,7 @@
       <c r="J37" s="8"/>
       <c r="K37" s="7"/>
     </row>
-    <row r="38" spans="2:11" ht="14.25" customHeight="1">
+    <row r="38" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
         <v>49</v>
       </c>
@@ -3962,7 +3981,7 @@
       <c r="J38" s="8"/>
       <c r="K38" s="7"/>
     </row>
-    <row r="39" spans="2:11" ht="13.5" customHeight="1">
+    <row r="39" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -3974,23 +3993,23 @@
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="2:11" ht="14.25" customHeight="1">
+    <row r="40" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C40" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="C40" s="49" t="s">
-        <v>153</v>
-      </c>
-      <c r="D40" s="50"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="50"/>
-      <c r="G40" s="50"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="50"/>
-      <c r="K40" s="51"/>
-    </row>
-    <row r="41" spans="2:11" ht="14.25" customHeight="1">
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="53"/>
+    </row>
+    <row r="41" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
         <v>2</v>
       </c>
@@ -4022,7 +4041,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="2:11" ht="14.25" customHeight="1">
+    <row r="42" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
         <v>53</v>
       </c>
@@ -4050,7 +4069,7 @@
       <c r="J42" s="8"/>
       <c r="K42" s="7"/>
     </row>
-    <row r="43" spans="2:11" ht="14.25" customHeight="1">
+    <row r="43" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="s">
         <v>12</v>
       </c>
@@ -4072,12 +4091,12 @@
       <c r="J43" s="8"/>
       <c r="K43" s="7"/>
     </row>
-    <row r="44" spans="2:11" ht="14.25" customHeight="1">
+    <row r="44" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>17</v>
@@ -4094,12 +4113,12 @@
       <c r="J44" s="8"/>
       <c r="K44" s="7"/>
     </row>
-    <row r="45" spans="2:11" ht="14.25" customHeight="1">
+    <row r="45" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>35</v>
@@ -4115,10 +4134,10 @@
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" ht="14.25" customHeight="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="6" t="s">
         <v>26</v>
       </c>
@@ -4144,9 +4163,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="2:11" ht="14.25" customHeight="1">
+    <row r="47" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>11</v>
@@ -4164,7 +4183,7 @@
       <c r="J47" s="8"/>
       <c r="K47" s="7"/>
     </row>
-    <row r="48" spans="2:11" ht="14.25" customHeight="1">
+    <row r="48" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
         <v>47</v>
       </c>
@@ -4186,15 +4205,15 @@
       <c r="J48" s="8"/>
       <c r="K48" s="7"/>
     </row>
-    <row r="49" spans="2:11" ht="14.25" customHeight="1">
+    <row r="49" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C49" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="D49" s="8" t="s">
         <v>143</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>144</v>
       </c>
       <c r="E49" s="8">
         <v>11</v>
@@ -4208,12 +4227,12 @@
       <c r="J49" s="8"/>
       <c r="K49" s="7"/>
     </row>
-    <row r="50" spans="2:11" ht="14.25" customHeight="1">
+    <row r="50" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>17</v>
@@ -4230,12 +4249,12 @@
       <c r="J50" s="8"/>
       <c r="K50" s="7"/>
     </row>
-    <row r="51" spans="2:11" ht="14.25" customHeight="1">
+    <row r="51" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>39</v>
@@ -4266,27 +4285,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K63"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="52.625" customWidth="1"/>
+    <col min="2" max="2" width="52.6640625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="10" width="9.625" customWidth="1"/>
-    <col min="11" max="11" width="47.625" customWidth="1"/>
+    <col min="4" max="10" width="9.6640625" customWidth="1"/>
+    <col min="11" max="11" width="47.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="14.25" customHeight="1">
+    <row r="2" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="44" t="s">
         <v>159</v>
-      </c>
-      <c r="C2" s="44" t="s">
-        <v>160</v>
       </c>
       <c r="D2" s="44"/>
       <c r="E2" s="44"/>
@@ -4297,7 +4316,7 @@
       <c r="J2" s="44"/>
       <c r="K2" s="44"/>
     </row>
-    <row r="3" spans="2:11" ht="14.25" customHeight="1">
+    <row r="3" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -4329,12 +4348,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="14.25" customHeight="1">
+    <row r="4" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>14</v>
@@ -4357,12 +4376,12 @@
       <c r="J4" s="8"/>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="2:11" ht="14.25" customHeight="1">
+    <row r="5" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>17</v>
@@ -4379,12 +4398,12 @@
       <c r="J5" s="8"/>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="2:11" ht="14.25" customHeight="1">
+    <row r="6" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>17</v>
@@ -4401,12 +4420,12 @@
       <c r="J6" s="8"/>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="2:11" ht="14.25" customHeight="1">
+    <row r="7" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>39</v>
@@ -4421,23 +4440,23 @@
       <c r="J7" s="8"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="9" spans="2:11" ht="14.25" customHeight="1">
+    <row r="9" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="44" t="s">
         <v>163</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>164</v>
       </c>
       <c r="D9" s="44"/>
       <c r="E9" s="44"/>
-      <c r="F9" s="45"/>
+      <c r="F9" s="47"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
       <c r="I9" s="44"/>
       <c r="J9" s="44"/>
       <c r="K9" s="44"/>
     </row>
-    <row r="10" spans="2:11" ht="14.25" customHeight="1">
+    <row r="10" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
@@ -4469,12 +4488,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="14.25" customHeight="1">
+    <row r="11" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>17</v>
@@ -4494,10 +4513,10 @@
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="24" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" ht="14.25" customHeight="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
         <v>12</v>
       </c>
@@ -4521,12 +4540,12 @@
       <c r="J12" s="8"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="2:11" ht="14.25" customHeight="1">
+    <row r="13" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>35</v>
@@ -4544,15 +4563,15 @@
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" ht="14.25" customHeight="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>14</v>
@@ -4569,12 +4588,12 @@
       <c r="J14" s="8"/>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="2:11" ht="14.25" customHeight="1">
+    <row r="15" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>17</v>
@@ -4593,12 +4612,12 @@
       <c r="J15" s="8"/>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" spans="2:11" ht="14.25" customHeight="1">
+    <row r="16" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>28</v>
@@ -4617,12 +4636,12 @@
       </c>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" spans="2:11" ht="14.25" customHeight="1">
+    <row r="17" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>28</v>
@@ -4641,12 +4660,12 @@
       </c>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="2:11" ht="14.25" customHeight="1">
+    <row r="18" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>28</v>
@@ -4665,12 +4684,12 @@
       </c>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="2:11" ht="14.25" customHeight="1">
+    <row r="19" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>35</v>
@@ -4688,10 +4707,10 @@
         <v>1</v>
       </c>
       <c r="K19" s="25" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" ht="14.25" customHeight="1">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
         <v>65</v>
       </c>
@@ -4711,12 +4730,12 @@
       <c r="J20" s="8"/>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="2:11" ht="14.25" customHeight="1">
+    <row r="21" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>39</v>
@@ -4729,12 +4748,12 @@
       <c r="J21" s="8"/>
       <c r="K21" s="7"/>
     </row>
-    <row r="22" spans="2:11" ht="14.25" customHeight="1">
+    <row r="22" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>39</v>
@@ -4749,23 +4768,23 @@
       <c r="J22" s="8"/>
       <c r="K22" s="7"/>
     </row>
-    <row r="24" spans="2:11" ht="14.25" customHeight="1">
+    <row r="24" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C24" s="44" t="s">
         <v>180</v>
-      </c>
-      <c r="C24" s="44" t="s">
-        <v>181</v>
       </c>
       <c r="D24" s="44"/>
       <c r="E24" s="44"/>
-      <c r="F24" s="45"/>
+      <c r="F24" s="47"/>
       <c r="G24" s="44"/>
       <c r="H24" s="44"/>
       <c r="I24" s="44"/>
       <c r="J24" s="44"/>
       <c r="K24" s="44"/>
     </row>
-    <row r="25" spans="2:11" ht="14.25" customHeight="1">
+    <row r="25" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>2</v>
       </c>
@@ -4797,12 +4816,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="2:11" ht="14.25" customHeight="1">
+    <row r="26" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>17</v>
@@ -4824,15 +4843,15 @@
       </c>
       <c r="J26" s="8"/>
       <c r="K26" s="24" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" ht="14.25" customHeight="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>17</v>
@@ -4851,7 +4870,7 @@
       <c r="J27" s="8"/>
       <c r="K27" s="7"/>
     </row>
-    <row r="28" spans="2:11" ht="14.25" customHeight="1">
+    <row r="28" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>12</v>
       </c>
@@ -4875,7 +4894,7 @@
       <c r="J28" s="8"/>
       <c r="K28" s="24"/>
     </row>
-    <row r="29" spans="2:11" ht="14.25" customHeight="1">
+    <row r="29" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="21" t="s">
         <v>16</v>
       </c>
@@ -4899,12 +4918,12 @@
       <c r="J29" s="23"/>
       <c r="K29" s="22"/>
     </row>
-    <row r="30" spans="2:11" ht="14.25" customHeight="1">
+    <row r="30" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>35</v>
@@ -4922,15 +4941,15 @@
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" ht="14.25" customHeight="1">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>14</v>
@@ -4947,12 +4966,12 @@
       <c r="J31" s="8"/>
       <c r="K31" s="7"/>
     </row>
-    <row r="32" spans="2:11" ht="14.25" customHeight="1">
+    <row r="32" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>17</v>
@@ -4971,12 +4990,12 @@
       <c r="J32" s="8"/>
       <c r="K32" s="7"/>
     </row>
-    <row r="33" spans="2:11" ht="14.25" customHeight="1">
+    <row r="33" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>28</v>
@@ -4995,12 +5014,12 @@
       </c>
       <c r="K33" s="7"/>
     </row>
-    <row r="34" spans="2:11" ht="14.25" customHeight="1">
+    <row r="34" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>28</v>
@@ -5019,12 +5038,12 @@
       </c>
       <c r="K34" s="7"/>
     </row>
-    <row r="35" spans="2:11" ht="14.25" customHeight="1">
+    <row r="35" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>28</v>
@@ -5043,7 +5062,7 @@
       </c>
       <c r="K35" s="7"/>
     </row>
-    <row r="36" spans="2:11" ht="14.25" customHeight="1">
+    <row r="36" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
         <v>65</v>
       </c>
@@ -5063,12 +5082,12 @@
       <c r="J36" s="8"/>
       <c r="K36" s="7"/>
     </row>
-    <row r="37" spans="2:11" ht="14.25" customHeight="1">
+    <row r="37" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="C37" s="22" t="s">
         <v>188</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>189</v>
       </c>
       <c r="D37" s="23" t="s">
         <v>39</v>
@@ -5083,12 +5102,12 @@
       <c r="J37" s="8"/>
       <c r="K37" s="7"/>
     </row>
-    <row r="38" spans="2:11" ht="14.25" customHeight="1">
+    <row r="38" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>39</v>
@@ -5103,23 +5122,23 @@
       <c r="J38" s="8"/>
       <c r="K38" s="7"/>
     </row>
-    <row r="40" spans="2:11" ht="14.25" customHeight="1">
+    <row r="40" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C40" s="44" t="s">
         <v>190</v>
-      </c>
-      <c r="C40" s="44" t="s">
-        <v>191</v>
       </c>
       <c r="D40" s="44"/>
       <c r="E40" s="44"/>
-      <c r="F40" s="45"/>
+      <c r="F40" s="47"/>
       <c r="G40" s="44"/>
       <c r="H40" s="44"/>
       <c r="I40" s="44"/>
       <c r="J40" s="44"/>
       <c r="K40" s="44"/>
     </row>
-    <row r="41" spans="2:11" ht="14.25" customHeight="1">
+    <row r="41" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
         <v>2</v>
       </c>
@@ -5151,12 +5170,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="2:11" ht="14.25" customHeight="1">
+    <row r="42" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>17</v>
@@ -5178,15 +5197,15 @@
       </c>
       <c r="J42" s="8"/>
       <c r="K42" s="24" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" ht="14.25" customHeight="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>35</v>
@@ -5204,15 +5223,15 @@
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" ht="14.25" customHeight="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>14</v>
@@ -5229,12 +5248,12 @@
       <c r="J44" s="8"/>
       <c r="K44" s="7"/>
     </row>
-    <row r="45" spans="2:11" ht="14.25" customHeight="1">
+    <row r="45" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>17</v>
@@ -5253,12 +5272,12 @@
       <c r="J45" s="8"/>
       <c r="K45" s="7"/>
     </row>
-    <row r="46" spans="2:11" ht="14.25" customHeight="1">
+    <row r="46" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>28</v>
@@ -5277,12 +5296,12 @@
       </c>
       <c r="K46" s="7"/>
     </row>
-    <row r="47" spans="2:11" ht="14.25" customHeight="1">
+    <row r="47" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>28</v>
@@ -5301,12 +5320,12 @@
       </c>
       <c r="K47" s="7"/>
     </row>
-    <row r="48" spans="2:11" ht="14.25" customHeight="1">
+    <row r="48" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>17</v>
@@ -5323,7 +5342,7 @@
       <c r="J48" s="8"/>
       <c r="K48" s="7"/>
     </row>
-    <row r="49" spans="2:11" ht="14.25" customHeight="1">
+    <row r="49" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="6" t="s">
         <v>47</v>
       </c>
@@ -5345,12 +5364,12 @@
       <c r="J49" s="8"/>
       <c r="K49" s="7"/>
     </row>
-    <row r="50" spans="2:11" ht="14.25" customHeight="1">
+    <row r="50" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C50" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>35</v>
@@ -5368,10 +5387,10 @@
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="25" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="51" spans="2:11" ht="14.25" customHeight="1">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="6" t="s">
         <v>65</v>
       </c>
@@ -5391,12 +5410,12 @@
       <c r="J51" s="8"/>
       <c r="K51" s="7"/>
     </row>
-    <row r="52" spans="2:11" ht="14.25" customHeight="1">
+    <row r="52" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C52" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>39</v>
@@ -5411,12 +5430,12 @@
       <c r="J52" s="8"/>
       <c r="K52" s="7"/>
     </row>
-    <row r="53" spans="2:11" ht="14.25" customHeight="1">
+    <row r="53" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>39</v>
@@ -5431,23 +5450,23 @@
       <c r="J53" s="8"/>
       <c r="K53" s="7"/>
     </row>
-    <row r="55" spans="2:11" ht="14.25" customHeight="1">
+    <row r="55" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C55" s="44" t="s">
         <v>197</v>
-      </c>
-      <c r="C55" s="44" t="s">
-        <v>198</v>
       </c>
       <c r="D55" s="44"/>
       <c r="E55" s="44"/>
-      <c r="F55" s="45"/>
+      <c r="F55" s="47"/>
       <c r="G55" s="44"/>
       <c r="H55" s="44"/>
       <c r="I55" s="44"/>
       <c r="J55" s="44"/>
       <c r="K55" s="44"/>
     </row>
-    <row r="56" spans="2:11" ht="14.25" customHeight="1">
+    <row r="56" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="4" t="s">
         <v>2</v>
       </c>
@@ -5479,12 +5498,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="2:11" ht="14.25" customHeight="1">
+    <row r="57" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>17</v>
@@ -5504,15 +5523,15 @@
       </c>
       <c r="J57" s="8"/>
       <c r="K57" s="24" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11" ht="14.25" customHeight="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C58" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>35</v>
@@ -5528,15 +5547,15 @@
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11" ht="14.25" customHeight="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>14</v>
@@ -5553,12 +5572,12 @@
       <c r="J59" s="8"/>
       <c r="K59" s="7"/>
     </row>
-    <row r="60" spans="2:11" ht="14.25" customHeight="1">
+    <row r="60" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C60" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>28</v>
@@ -5577,12 +5596,12 @@
       </c>
       <c r="K60" s="7"/>
     </row>
-    <row r="61" spans="2:11" ht="14.25" customHeight="1">
+    <row r="61" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>28</v>
@@ -5601,12 +5620,12 @@
       </c>
       <c r="K61" s="7"/>
     </row>
-    <row r="62" spans="2:11" ht="14.25" customHeight="1">
+    <row r="62" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C62" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>28</v>
@@ -5625,12 +5644,12 @@
       </c>
       <c r="K62" s="7"/>
     </row>
-    <row r="63" spans="2:11" ht="14.25" customHeight="1">
+    <row r="63" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>39</v>
@@ -5662,42 +5681,42 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="44.125" customWidth="1"/>
-    <col min="3" max="3" width="27.5" customWidth="1"/>
-    <col min="4" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="6.125" customWidth="1"/>
-    <col min="7" max="7" width="8.375" customWidth="1"/>
-    <col min="8" max="8" width="6.125" customWidth="1"/>
-    <col min="9" max="10" width="8.375" customWidth="1"/>
+    <col min="2" max="2" width="44.109375" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" customWidth="1"/>
+    <col min="4" max="5" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" customWidth="1"/>
+    <col min="8" max="8" width="6.109375" customWidth="1"/>
+    <col min="9" max="10" width="8.33203125" customWidth="1"/>
     <col min="11" max="11" width="63" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="C2" s="46" t="s">
-        <v>200</v>
-      </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="48"/>
-    </row>
-    <row r="3" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="50"/>
+    </row>
+    <row r="3" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -5729,7 +5748,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="4" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>53</v>
       </c>
@@ -5757,9 +5776,9 @@
       <c r="J4" s="8"/>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="5" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>59</v>
@@ -5781,12 +5800,12 @@
       <c r="J5" s="8"/>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>17</v>
@@ -5803,7 +5822,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="7" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>47</v>
       </c>
@@ -5825,12 +5844,12 @@
       <c r="J7" s="8"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="8" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>39</v>
@@ -5845,12 +5864,12 @@
       <c r="J8" s="8"/>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="9" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>35</v>
@@ -5868,15 +5887,15 @@
         <v>1</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="10" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>39</v>
@@ -5889,7 +5908,7 @@
       <c r="J10" s="8"/>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="2:11" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="11" spans="2:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
@@ -5901,12 +5920,12 @@
       <c r="J11" s="8"/>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="2:11" ht="14.25" customHeight="1">
+    <row r="12" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C12" s="44" t="s">
         <v>209</v>
-      </c>
-      <c r="C12" s="44" t="s">
-        <v>210</v>
       </c>
       <c r="D12" s="44"/>
       <c r="E12" s="44"/>
@@ -5917,7 +5936,7 @@
       <c r="J12" s="44"/>
       <c r="K12" s="44"/>
     </row>
-    <row r="13" spans="2:11" ht="14.25" customHeight="1">
+    <row r="13" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
@@ -5949,7 +5968,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="14.25" customHeight="1">
+    <row r="14" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>53</v>
       </c>
@@ -5977,12 +5996,12 @@
       <c r="J14" s="8"/>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="2:11" ht="14.25" customHeight="1">
+    <row r="15" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>17</v>
@@ -5999,12 +6018,12 @@
       <c r="J15" s="8"/>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" spans="2:11" ht="14.25" customHeight="1">
+    <row r="16" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>17</v>
@@ -6021,12 +6040,12 @@
       <c r="J16" s="8"/>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" spans="2:11" ht="14.25" customHeight="1">
+    <row r="17" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>17</v>
@@ -6041,12 +6060,12 @@
       <c r="J17" s="8"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="2:11" ht="14.25" customHeight="1">
+    <row r="18" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>17</v>
@@ -6061,12 +6080,12 @@
       <c r="J18" s="8"/>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="2:11" ht="14.25" customHeight="1">
+    <row r="19" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>219</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>220</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>14</v>
@@ -6083,12 +6102,12 @@
       <c r="J19" s="8"/>
       <c r="K19" s="7"/>
     </row>
-    <row r="20" spans="2:11" ht="14.25" customHeight="1">
+    <row r="20" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>39</v>
@@ -6103,7 +6122,7 @@
       <c r="J20" s="8"/>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="2:11" ht="13.5" customHeight="1">
+    <row r="21" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
@@ -6113,12 +6132,12 @@
       <c r="J21" s="11"/>
       <c r="K21" s="18"/>
     </row>
-    <row r="22" spans="2:11" ht="14.25" customHeight="1">
+    <row r="22" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C22" s="44" t="s">
         <v>221</v>
-      </c>
-      <c r="C22" s="44" t="s">
-        <v>222</v>
       </c>
       <c r="D22" s="44"/>
       <c r="E22" s="44"/>
@@ -6129,7 +6148,7 @@
       <c r="J22" s="44"/>
       <c r="K22" s="44"/>
     </row>
-    <row r="23" spans="2:11" ht="14.25" customHeight="1">
+    <row r="23" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>2</v>
       </c>
@@ -6161,7 +6180,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:11" ht="14.25" customHeight="1">
+    <row r="24" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>53</v>
       </c>
@@ -6189,12 +6208,12 @@
       <c r="J24" s="8"/>
       <c r="K24" s="7"/>
     </row>
-    <row r="25" spans="2:11" ht="14.25" customHeight="1">
+    <row r="25" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>17</v>
@@ -6211,12 +6230,12 @@
       <c r="J25" s="8"/>
       <c r="K25" s="7"/>
     </row>
-    <row r="26" spans="2:11" ht="14.25" customHeight="1">
+    <row r="26" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>17</v>
@@ -6233,12 +6252,12 @@
       <c r="J26" s="8"/>
       <c r="K26" s="7"/>
     </row>
-    <row r="27" spans="2:11" ht="14.25" customHeight="1">
+    <row r="27" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>17</v>
@@ -6253,12 +6272,12 @@
       <c r="J27" s="8"/>
       <c r="K27" s="7"/>
     </row>
-    <row r="28" spans="2:11" ht="14.25" customHeight="1">
+    <row r="28" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>17</v>
@@ -6273,12 +6292,12 @@
       <c r="J28" s="8"/>
       <c r="K28" s="7"/>
     </row>
-    <row r="29" spans="2:11" ht="14.25" customHeight="1">
+    <row r="29" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>39</v>
@@ -6293,12 +6312,12 @@
       <c r="J29" s="8"/>
       <c r="K29" s="7"/>
     </row>
-    <row r="30" spans="2:11" ht="14.25" customHeight="1">
+    <row r="30" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>39</v>
@@ -6311,7 +6330,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="19"/>
     </row>
-    <row r="31" spans="2:11" ht="13.5" customHeight="1">
+    <row r="31" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -6321,23 +6340,23 @@
       <c r="J31" s="11"/>
       <c r="K31" s="18"/>
     </row>
-    <row r="32" spans="2:11" ht="14.25" customHeight="1">
+    <row r="32" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C32" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="C32" s="49" t="s">
-        <v>230</v>
-      </c>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="51"/>
-    </row>
-    <row r="33" spans="2:11" ht="14.25" customHeight="1">
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="53"/>
+    </row>
+    <row r="33" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
         <v>2</v>
       </c>
@@ -6369,7 +6388,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="2:11" ht="14.25" customHeight="1">
+    <row r="34" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
         <v>53</v>
       </c>
@@ -6397,12 +6416,12 @@
       <c r="J34" s="8"/>
       <c r="K34" s="7"/>
     </row>
-    <row r="35" spans="2:11" ht="14.25" customHeight="1">
+    <row r="35" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>17</v>
@@ -6419,12 +6438,12 @@
       <c r="J35" s="8"/>
       <c r="K35" s="7"/>
     </row>
-    <row r="36" spans="2:11" ht="14.25" customHeight="1">
+    <row r="36" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>17</v>
@@ -6441,12 +6460,12 @@
       <c r="J36" s="8"/>
       <c r="K36" s="7"/>
     </row>
-    <row r="37" spans="2:11" ht="14.25" customHeight="1">
+    <row r="37" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>17</v>
@@ -6463,15 +6482,15 @@
       <c r="J37" s="8"/>
       <c r="K37" s="7"/>
     </row>
-    <row r="38" spans="2:11" ht="14.25" customHeight="1">
+    <row r="38" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="D38" s="8" t="s">
         <v>238</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>239</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8" t="s">
@@ -6483,12 +6502,12 @@
       <c r="J38" s="8"/>
       <c r="K38" s="7"/>
     </row>
-    <row r="39" spans="2:11" ht="14.25" customHeight="1">
+    <row r="39" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>39</v>
@@ -6503,12 +6522,12 @@
       <c r="J39" s="12"/>
       <c r="K39" s="19"/>
     </row>
-    <row r="40" spans="2:11" ht="14.25" customHeight="1">
+    <row r="40" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>39</v>
@@ -6521,7 +6540,7 @@
       <c r="J40" s="12"/>
       <c r="K40" s="19"/>
     </row>
-    <row r="41" spans="2:11" ht="14.25" customHeight="1">
+    <row r="41" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="15"/>
       <c r="C41" s="16"/>
       <c r="D41" s="17"/>
@@ -6533,23 +6552,23 @@
       <c r="J41" s="11"/>
       <c r="K41" s="18"/>
     </row>
-    <row r="42" spans="2:11" ht="14.25" customHeight="1">
+    <row r="42" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="C42" s="49" t="s">
-        <v>240</v>
-      </c>
-      <c r="D42" s="50"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="50"/>
-      <c r="G42" s="50"/>
-      <c r="H42" s="50"/>
-      <c r="I42" s="50"/>
-      <c r="J42" s="50"/>
-      <c r="K42" s="51"/>
-    </row>
-    <row r="43" spans="2:11" ht="14.25" customHeight="1">
+        <v>228</v>
+      </c>
+      <c r="C42" s="51" t="s">
+        <v>239</v>
+      </c>
+      <c r="D42" s="52"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="52"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="53"/>
+    </row>
+    <row r="43" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
         <v>2</v>
       </c>
@@ -6581,7 +6600,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="2:11" ht="14.25" customHeight="1">
+    <row r="44" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
         <v>53</v>
       </c>
@@ -6609,12 +6628,12 @@
       <c r="J44" s="8"/>
       <c r="K44" s="7"/>
     </row>
-    <row r="45" spans="2:11" ht="14.25" customHeight="1">
+    <row r="45" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>17</v>
@@ -6631,12 +6650,12 @@
       <c r="J45" s="8"/>
       <c r="K45" s="7"/>
     </row>
-    <row r="46" spans="2:11" ht="14.25" customHeight="1">
+    <row r="46" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>17</v>
@@ -6653,12 +6672,12 @@
       <c r="J46" s="8"/>
       <c r="K46" s="7"/>
     </row>
-    <row r="47" spans="2:11" ht="14.25" customHeight="1">
+    <row r="47" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>17</v>
@@ -6675,15 +6694,15 @@
       <c r="J47" s="8"/>
       <c r="K47" s="7"/>
     </row>
-    <row r="48" spans="2:11" ht="14.25" customHeight="1">
+    <row r="48" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E48" s="8"/>
       <c r="F48" s="8" t="s">
@@ -6695,12 +6714,12 @@
       <c r="J48" s="8"/>
       <c r="K48" s="7"/>
     </row>
-    <row r="49" spans="2:11" ht="14.25" customHeight="1">
+    <row r="49" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>39</v>
@@ -6715,12 +6734,12 @@
       <c r="J49" s="12"/>
       <c r="K49" s="19"/>
     </row>
-    <row r="50" spans="2:11" ht="14.25" customHeight="1">
+    <row r="50" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C50" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>39</v>
@@ -6733,7 +6752,7 @@
       <c r="J50" s="12"/>
       <c r="K50" s="19"/>
     </row>
-    <row r="51" spans="2:11" ht="14.25" customHeight="1">
+    <row r="51" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="15"/>
       <c r="C51" s="16"/>
       <c r="D51" s="17"/>
@@ -6745,12 +6764,12 @@
       <c r="J51" s="11"/>
       <c r="K51" s="18"/>
     </row>
-    <row r="52" spans="2:11" ht="14.25" customHeight="1">
+    <row r="52" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="C52" s="44" t="s">
         <v>245</v>
-      </c>
-      <c r="C52" s="44" t="s">
-        <v>246</v>
       </c>
       <c r="D52" s="44"/>
       <c r="E52" s="44"/>
@@ -6761,7 +6780,7 @@
       <c r="J52" s="44"/>
       <c r="K52" s="44"/>
     </row>
-    <row r="53" spans="2:11" ht="14.25" customHeight="1">
+    <row r="53" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
         <v>2</v>
       </c>
@@ -6793,7 +6812,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="14.25" customHeight="1">
+    <row r="54" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="6" t="s">
         <v>53</v>
       </c>
@@ -6821,12 +6840,12 @@
       <c r="J54" s="8"/>
       <c r="K54" s="7"/>
     </row>
-    <row r="55" spans="2:11" ht="14.25" customHeight="1">
+    <row r="55" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C55" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>17</v>
@@ -6843,12 +6862,12 @@
       <c r="J55" s="8"/>
       <c r="K55" s="7"/>
     </row>
-    <row r="56" spans="2:11" ht="14.25" customHeight="1">
+    <row r="56" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C56" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>17</v>
@@ -6865,15 +6884,15 @@
       <c r="J56" s="8"/>
       <c r="K56" s="7"/>
     </row>
-    <row r="57" spans="2:11" ht="14.25" customHeight="1">
+    <row r="57" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E57" s="8"/>
       <c r="F57" s="8" t="s">
@@ -6885,12 +6904,12 @@
       <c r="J57" s="8"/>
       <c r="K57" s="7"/>
     </row>
-    <row r="58" spans="2:11" ht="14.25" customHeight="1">
+    <row r="58" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>39</v>

--- a/document/交易大盘数据库设计表@20180228.xlsx
+++ b/document/交易大盘数据库设计表@20180228.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\iqmkj_idea\jydp\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Company\GitLab\jydp\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1236" yWindow="0" windowWidth="22956" windowHeight="9948"/>
+    <workbookView xWindow="1230" yWindow="0" windowWidth="22950" windowHeight="9945" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="用户系统" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="264">
   <si>
     <t>user_tab</t>
   </si>
@@ -882,12 +882,59 @@
     <t>imageUrl</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>system_account_amount_tab</t>
+  </si>
+  <si>
+    <t>系统账户金额</t>
+  </si>
+  <si>
+    <t>accountCode</t>
+  </si>
+  <si>
+    <t>账户编码</t>
+  </si>
+  <si>
+    <t>详见《系统账户编码表》</t>
+  </si>
+  <si>
+    <t>accountName</t>
+  </si>
+  <si>
+    <t>账户名称</t>
+  </si>
+  <si>
+    <t>accountAmount</t>
+  </si>
+  <si>
+    <t>账户金额</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int_x000D_</t>
+    </r>
+  </si>
+  <si>
+    <t>单位：美元</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(18,8)_x000D_</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="宋体"/>
@@ -943,6 +990,18 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -1079,7 +1138,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1208,6 +1267,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1244,8 +1306,39 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1524,39 +1617,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="49.33203125" customWidth="1"/>
-    <col min="3" max="3" width="27.44140625" customWidth="1"/>
-    <col min="4" max="5" width="10.44140625" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" customWidth="1"/>
-    <col min="8" max="8" width="6.109375" customWidth="1"/>
-    <col min="9" max="10" width="8.33203125" customWidth="1"/>
-    <col min="11" max="11" width="57.44140625" customWidth="1"/>
+    <col min="2" max="2" width="49.375" customWidth="1"/>
+    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="4" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="6.125" customWidth="1"/>
+    <col min="7" max="7" width="8.375" customWidth="1"/>
+    <col min="8" max="8" width="6.125" customWidth="1"/>
+    <col min="9" max="10" width="8.375" customWidth="1"/>
+    <col min="11" max="11" width="57.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-    </row>
-    <row r="3" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+    </row>
+    <row r="3" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1588,7 +1681,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
@@ -1616,7 +1709,7 @@
       <c r="J4" s="8"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="6" t="s">
         <v>16</v>
       </c>
@@ -1640,7 +1733,7 @@
       <c r="J5" s="8"/>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
@@ -1662,7 +1755,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="6" t="s">
         <v>20</v>
       </c>
@@ -1684,7 +1777,7 @@
       <c r="J7" s="8"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
@@ -1694,7 +1787,7 @@
       <c r="D8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="56">
+      <c r="E8" s="44">
         <v>6</v>
       </c>
       <c r="F8" s="8" t="s">
@@ -1702,13 +1795,13 @@
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="45" t="s">
+      <c r="I8" s="46" t="s">
         <v>15</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="6" t="s">
         <v>24</v>
       </c>
@@ -1718,7 +1811,7 @@
       <c r="D9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="56">
+      <c r="E9" s="44">
         <v>11</v>
       </c>
       <c r="F9" s="8" t="s">
@@ -1726,11 +1819,11 @@
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
-      <c r="I9" s="46"/>
+      <c r="I9" s="47"/>
       <c r="J9" s="8"/>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="6" t="s">
         <v>26</v>
       </c>
@@ -1756,7 +1849,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="6" t="s">
         <v>31</v>
       </c>
@@ -1782,7 +1875,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="10" t="s">
         <v>33</v>
       </c>
@@ -1808,7 +1901,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="6" t="s">
         <v>37</v>
       </c>
@@ -1828,7 +1921,7 @@
       <c r="J13" s="8"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="6"/>
       <c r="C14" s="29"/>
       <c r="D14" s="30"/>
@@ -1840,23 +1933,23 @@
       <c r="J14" s="30"/>
       <c r="K14" s="41"/>
     </row>
-    <row r="15" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="50"/>
-    </row>
-    <row r="16" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="51"/>
+    </row>
+    <row r="16" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="4" t="s">
         <v>2</v>
       </c>
@@ -1888,7 +1981,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="6" t="s">
         <v>42</v>
       </c>
@@ -1916,7 +2009,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="6" t="s">
         <v>12</v>
@@ -1942,7 +2035,7 @@
       <c r="K18" s="24"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="6" t="s">
         <v>44</v>
       </c>
@@ -1966,7 +2059,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="6" t="s">
         <v>47</v>
       </c>
@@ -1988,7 +2081,7 @@
       <c r="J20" s="8"/>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="6" t="s">
         <v>49</v>
       </c>
@@ -2008,7 +2101,7 @@
       <c r="J21" s="8"/>
       <c r="K21" s="7"/>
     </row>
-    <row r="22" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="15"/>
       <c r="C22" s="16"/>
       <c r="D22" s="17"/>
@@ -2020,23 +2113,23 @@
       <c r="J22" s="17"/>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="53"/>
-    </row>
-    <row r="24" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="54"/>
+    </row>
+    <row r="24" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="4" t="s">
         <v>2</v>
       </c>
@@ -2068,7 +2161,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="6" t="s">
         <v>53</v>
       </c>
@@ -2096,7 +2189,7 @@
       <c r="J25" s="23"/>
       <c r="K25" s="7"/>
     </row>
-    <row r="26" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="6" t="s">
         <v>12</v>
       </c>
@@ -2120,7 +2213,7 @@
       <c r="J26" s="8"/>
       <c r="K26" s="24"/>
     </row>
-    <row r="27" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="6" t="s">
         <v>16</v>
       </c>
@@ -2142,7 +2235,7 @@
       <c r="J27" s="8"/>
       <c r="K27" s="7"/>
     </row>
-    <row r="28" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="6" t="s">
         <v>56</v>
       </c>
@@ -2164,7 +2257,7 @@
       <c r="J28" s="8"/>
       <c r="K28" s="7"/>
     </row>
-    <row r="29" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="6" t="s">
         <v>58</v>
       </c>
@@ -2174,7 +2267,7 @@
       <c r="D29" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="56">
+      <c r="E29" s="44">
         <v>20</v>
       </c>
       <c r="F29" s="8" t="s">
@@ -2186,7 +2279,7 @@
       <c r="J29" s="8"/>
       <c r="K29" s="7"/>
     </row>
-    <row r="30" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="6" t="s">
         <v>60</v>
       </c>
@@ -2208,7 +2301,7 @@
       <c r="J30" s="8"/>
       <c r="K30" s="7"/>
     </row>
-    <row r="31" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="6" t="s">
         <v>62</v>
       </c>
@@ -2236,7 +2329,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="6" t="s">
         <v>65</v>
       </c>
@@ -2256,7 +2349,7 @@
       <c r="J32" s="8"/>
       <c r="K32" s="42"/>
     </row>
-    <row r="33" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="6" t="s">
         <v>66</v>
       </c>
@@ -2274,7 +2367,7 @@
       <c r="J33" s="12"/>
       <c r="K33" s="19"/>
     </row>
-    <row r="34" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="6" t="s">
         <v>37</v>
       </c>
@@ -2294,7 +2387,7 @@
       <c r="J34" s="12"/>
       <c r="K34" s="19"/>
     </row>
-    <row r="36" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="9" t="s">
         <v>69</v>
       </c>
@@ -2310,7 +2403,7 @@
       <c r="J36" s="14"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="6" t="s">
         <v>2</v>
       </c>
@@ -2342,7 +2435,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="6" t="s">
         <v>53</v>
       </c>
@@ -2370,7 +2463,7 @@
       <c r="J38" s="8"/>
       <c r="K38" s="7"/>
     </row>
-    <row r="39" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="6" t="s">
         <v>72</v>
       </c>
@@ -2394,7 +2487,7 @@
       <c r="J39" s="8"/>
       <c r="K39" s="7"/>
     </row>
-    <row r="40" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="6" t="s">
         <v>251</v>
       </c>
@@ -2416,7 +2509,7 @@
       <c r="J40" s="8"/>
       <c r="K40" s="7"/>
     </row>
-    <row r="41" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="6" t="s">
         <v>37</v>
       </c>
@@ -2436,24 +2529,24 @@
       <c r="J41" s="8"/>
       <c r="K41" s="7"/>
     </row>
-    <row r="42" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="54" t="s">
+      <c r="C43" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="D43" s="54"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="55"/>
-      <c r="G43" s="54"/>
-      <c r="H43" s="54"/>
-      <c r="I43" s="54"/>
-      <c r="J43" s="54"/>
-      <c r="K43" s="54"/>
-    </row>
-    <row r="44" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D43" s="55"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="55"/>
+      <c r="J43" s="55"/>
+      <c r="K43" s="55"/>
+    </row>
+    <row r="44" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="32" t="s">
         <v>2</v>
       </c>
@@ -2485,7 +2578,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="34" t="s">
         <v>78</v>
       </c>
@@ -2513,7 +2606,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="34" t="s">
         <v>12</v>
       </c>
@@ -2537,7 +2630,7 @@
       <c r="J46" s="35"/>
       <c r="K46" s="43"/>
     </row>
-    <row r="47" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="34" t="s">
         <v>81</v>
       </c>
@@ -2561,7 +2654,7 @@
       <c r="J47" s="35"/>
       <c r="K47" s="36"/>
     </row>
-    <row r="48" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="34" t="s">
         <v>83</v>
       </c>
@@ -2585,7 +2678,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="37" t="s">
         <v>86</v>
       </c>
@@ -2607,7 +2700,7 @@
       <c r="J49" s="35"/>
       <c r="K49" s="36"/>
     </row>
-    <row r="50" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="34" t="s">
         <v>88</v>
       </c>
@@ -2631,7 +2724,7 @@
       </c>
       <c r="K50" s="36"/>
     </row>
-    <row r="51" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="34" t="s">
         <v>90</v>
       </c>
@@ -2655,7 +2748,7 @@
       </c>
       <c r="K51" s="36"/>
     </row>
-    <row r="52" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="34" t="s">
         <v>65</v>
       </c>
@@ -2679,7 +2772,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="34" t="s">
         <v>37</v>
       </c>
@@ -2699,23 +2792,23 @@
       <c r="J53" s="35"/>
       <c r="K53" s="36"/>
     </row>
-    <row r="55" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C55" s="51" t="s">
+      <c r="C55" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="D55" s="52"/>
-      <c r="E55" s="52"/>
-      <c r="F55" s="52"/>
-      <c r="G55" s="52"/>
-      <c r="H55" s="52"/>
-      <c r="I55" s="52"/>
-      <c r="J55" s="52"/>
-      <c r="K55" s="53"/>
-    </row>
-    <row r="56" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D55" s="53"/>
+      <c r="E55" s="53"/>
+      <c r="F55" s="53"/>
+      <c r="G55" s="53"/>
+      <c r="H55" s="53"/>
+      <c r="I55" s="53"/>
+      <c r="J55" s="53"/>
+      <c r="K55" s="54"/>
+    </row>
+    <row r="56" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="4" t="s">
         <v>2</v>
       </c>
@@ -2747,7 +2840,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="6" t="s">
         <v>53</v>
       </c>
@@ -2775,7 +2868,7 @@
       <c r="J57" s="8"/>
       <c r="K57" s="7"/>
     </row>
-    <row r="58" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="6" t="s">
         <v>12</v>
       </c>
@@ -2799,7 +2892,7 @@
       <c r="J58" s="8"/>
       <c r="K58" s="24"/>
     </row>
-    <row r="59" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B59" s="6" t="s">
         <v>16</v>
       </c>
@@ -2821,7 +2914,7 @@
       <c r="J59" s="8"/>
       <c r="K59" s="7"/>
     </row>
-    <row r="60" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="6" t="s">
         <v>96</v>
       </c>
@@ -2843,7 +2936,7 @@
       <c r="J60" s="8"/>
       <c r="K60" s="7"/>
     </row>
-    <row r="61" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="6" t="s">
         <v>98</v>
       </c>
@@ -2865,7 +2958,7 @@
       <c r="J61" s="8"/>
       <c r="K61" s="7"/>
     </row>
-    <row r="62" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="6" t="s">
         <v>37</v>
       </c>
@@ -2885,7 +2978,7 @@
       <c r="J62" s="12"/>
       <c r="K62" s="19"/>
     </row>
-    <row r="63" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="6" t="s">
         <v>101</v>
       </c>
@@ -2911,7 +3004,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="64" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B64" s="6" t="s">
         <v>104</v>
       </c>
@@ -2931,7 +3024,7 @@
       <c r="J64" s="8"/>
       <c r="K64" s="7"/>
     </row>
-    <row r="65" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65" s="6" t="s">
         <v>106</v>
       </c>
@@ -2951,7 +3044,7 @@
       <c r="J65" s="8"/>
       <c r="K65" s="7"/>
     </row>
-    <row r="66" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" s="6" t="s">
         <v>108</v>
       </c>
@@ -2969,23 +3062,23 @@
       <c r="J66" s="8"/>
       <c r="K66" s="7"/>
     </row>
-    <row r="68" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B68" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C68" s="44" t="s">
+      <c r="C68" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="D68" s="44"/>
-      <c r="E68" s="44"/>
-      <c r="F68" s="44"/>
-      <c r="G68" s="44"/>
-      <c r="H68" s="44"/>
-      <c r="I68" s="44"/>
-      <c r="J68" s="44"/>
-      <c r="K68" s="44"/>
-    </row>
-    <row r="69" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D68" s="45"/>
+      <c r="E68" s="45"/>
+      <c r="F68" s="45"/>
+      <c r="G68" s="45"/>
+      <c r="H68" s="45"/>
+      <c r="I68" s="45"/>
+      <c r="J68" s="45"/>
+      <c r="K68" s="45"/>
+    </row>
+    <row r="69" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B69" s="4" t="s">
         <v>2</v>
       </c>
@@ -3017,7 +3110,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B70" s="6" t="s">
         <v>12</v>
       </c>
@@ -3041,7 +3134,7 @@
       <c r="J70" s="8"/>
       <c r="K70" s="7"/>
     </row>
-    <row r="71" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B71" s="6" t="s">
         <v>83</v>
       </c>
@@ -3063,7 +3156,7 @@
       <c r="J71" s="8"/>
       <c r="K71" s="7"/>
     </row>
-    <row r="72" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B72" s="6" t="s">
         <v>112</v>
       </c>
@@ -3087,7 +3180,7 @@
       </c>
       <c r="K72" s="7"/>
     </row>
-    <row r="73" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="6" t="s">
         <v>114</v>
       </c>
@@ -3111,7 +3204,7 @@
       </c>
       <c r="K73" s="7"/>
     </row>
-    <row r="74" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="6" t="s">
         <v>37</v>
       </c>
@@ -3155,31 +3248,31 @@
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="52.6640625" customWidth="1"/>
+    <col min="2" max="2" width="52.625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="10" width="9.6640625" customWidth="1"/>
-    <col min="11" max="11" width="47.6640625" customWidth="1"/>
+    <col min="4" max="10" width="9.625" customWidth="1"/>
+    <col min="11" max="11" width="47.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-    </row>
-    <row r="3" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+    </row>
+    <row r="3" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -3211,7 +3304,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="6" t="s">
         <v>117</v>
       </c>
@@ -3237,7 +3330,7 @@
       <c r="J4" s="8"/>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="6" t="s">
         <v>119</v>
       </c>
@@ -3259,7 +3352,7 @@
       <c r="J5" s="8"/>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="6" t="s">
         <v>121</v>
       </c>
@@ -3283,7 +3376,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="6" t="s">
         <v>124</v>
       </c>
@@ -3307,7 +3400,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="6" t="s">
         <v>37</v>
       </c>
@@ -3327,7 +3420,7 @@
       <c r="J8" s="8"/>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -3339,23 +3432,23 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="52" t="s">
         <v>128</v>
       </c>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="53"/>
-    </row>
-    <row r="11" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="54"/>
+    </row>
+    <row r="11" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
@@ -3387,7 +3480,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="6" t="s">
         <v>129</v>
       </c>
@@ -3415,7 +3508,7 @@
       <c r="J12" s="8"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="6" t="s">
         <v>131</v>
       </c>
@@ -3437,7 +3530,7 @@
       <c r="J13" s="8"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="6" t="s">
         <v>37</v>
       </c>
@@ -3457,7 +3550,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="19"/>
     </row>
-    <row r="15" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -3469,23 +3562,23 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-    </row>
-    <row r="17" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+    </row>
+    <row r="17" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="4" t="s">
         <v>2</v>
       </c>
@@ -3517,7 +3610,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="6" t="s">
         <v>129</v>
       </c>
@@ -3543,7 +3636,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="2:11" s="26" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" s="26" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="6" t="s">
         <v>135</v>
       </c>
@@ -3565,7 +3658,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="6" t="s">
         <v>37</v>
       </c>
@@ -3585,7 +3678,7 @@
       <c r="J20" s="8"/>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -3597,23 +3690,23 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="C22" s="44" t="s">
+      <c r="C22" s="45" t="s">
         <v>140</v>
       </c>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-    </row>
-    <row r="23" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+    </row>
+    <row r="23" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="4" t="s">
         <v>2</v>
       </c>
@@ -3645,7 +3738,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="6" t="s">
         <v>141</v>
       </c>
@@ -3673,7 +3766,7 @@
       <c r="J24" s="8"/>
       <c r="K24" s="7"/>
     </row>
-    <row r="25" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="6" t="s">
         <v>106</v>
       </c>
@@ -3697,7 +3790,7 @@
       <c r="J25" s="8"/>
       <c r="K25" s="7"/>
     </row>
-    <row r="26" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="6" t="s">
         <v>145</v>
       </c>
@@ -3717,7 +3810,7 @@
       <c r="J26" s="8"/>
       <c r="K26" s="7"/>
     </row>
-    <row r="27" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="6" t="s">
         <v>18</v>
       </c>
@@ -3739,7 +3832,7 @@
       <c r="J27" s="8"/>
       <c r="K27" s="7"/>
     </row>
-    <row r="28" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="6" t="s">
         <v>129</v>
       </c>
@@ -3761,7 +3854,7 @@
       <c r="J28" s="8"/>
       <c r="K28" s="7"/>
     </row>
-    <row r="29" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="10" t="s">
         <v>33</v>
       </c>
@@ -3787,7 +3880,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="6" t="s">
         <v>37</v>
       </c>
@@ -3807,7 +3900,7 @@
       <c r="J30" s="8"/>
       <c r="K30" s="7"/>
     </row>
-    <row r="31" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -3819,23 +3912,23 @@
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C32" s="51" t="s">
+      <c r="C32" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="53"/>
-    </row>
-    <row r="33" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="54"/>
+    </row>
+    <row r="33" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="4" t="s">
         <v>2</v>
       </c>
@@ -3867,7 +3960,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="2:11" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="6" t="s">
         <v>42</v>
       </c>
@@ -3895,7 +3988,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="6" t="s">
         <v>149</v>
       </c>
@@ -3917,7 +4010,7 @@
       <c r="J35" s="8"/>
       <c r="K35" s="7"/>
     </row>
-    <row r="36" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="6" t="s">
         <v>106</v>
       </c>
@@ -3939,7 +4032,7 @@
       <c r="J36" s="8"/>
       <c r="K36" s="7"/>
     </row>
-    <row r="37" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="6" t="s">
         <v>47</v>
       </c>
@@ -3961,7 +4054,7 @@
       <c r="J37" s="8"/>
       <c r="K37" s="7"/>
     </row>
-    <row r="38" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="6" t="s">
         <v>49</v>
       </c>
@@ -3981,7 +4074,7 @@
       <c r="J38" s="8"/>
       <c r="K38" s="7"/>
     </row>
-    <row r="39" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -3993,23 +4086,23 @@
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="C40" s="51" t="s">
+      <c r="C40" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="53"/>
-    </row>
-    <row r="41" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="54"/>
+    </row>
+    <row r="41" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="4" t="s">
         <v>2</v>
       </c>
@@ -4041,7 +4134,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="6" t="s">
         <v>53</v>
       </c>
@@ -4069,7 +4162,7 @@
       <c r="J42" s="8"/>
       <c r="K42" s="7"/>
     </row>
-    <row r="43" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="6" t="s">
         <v>12</v>
       </c>
@@ -4091,7 +4184,7 @@
       <c r="J43" s="8"/>
       <c r="K43" s="7"/>
     </row>
-    <row r="44" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="6" t="s">
         <v>16</v>
       </c>
@@ -4113,7 +4206,7 @@
       <c r="J44" s="8"/>
       <c r="K44" s="7"/>
     </row>
-    <row r="45" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="6" t="s">
         <v>153</v>
       </c>
@@ -4137,7 +4230,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="46" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="6" t="s">
         <v>26</v>
       </c>
@@ -4163,7 +4256,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="6" t="s">
         <v>156</v>
       </c>
@@ -4183,7 +4276,7 @@
       <c r="J47" s="8"/>
       <c r="K47" s="7"/>
     </row>
-    <row r="48" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="6" t="s">
         <v>47</v>
       </c>
@@ -4205,7 +4298,7 @@
       <c r="J48" s="8"/>
       <c r="K48" s="7"/>
     </row>
-    <row r="49" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="6" t="s">
         <v>141</v>
       </c>
@@ -4227,7 +4320,7 @@
       <c r="J49" s="8"/>
       <c r="K49" s="7"/>
     </row>
-    <row r="50" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="6" t="s">
         <v>106</v>
       </c>
@@ -4249,7 +4342,7 @@
       <c r="J50" s="8"/>
       <c r="K50" s="7"/>
     </row>
-    <row r="51" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="6" t="s">
         <v>37</v>
       </c>
@@ -4292,31 +4385,31 @@
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="52.6640625" customWidth="1"/>
+    <col min="2" max="2" width="52.625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="10" width="9.6640625" customWidth="1"/>
-    <col min="11" max="11" width="47.6640625" customWidth="1"/>
+    <col min="4" max="10" width="9.625" customWidth="1"/>
+    <col min="11" max="11" width="47.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-    </row>
-    <row r="3" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+    </row>
+    <row r="3" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -4348,7 +4441,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="6" t="s">
         <v>83</v>
       </c>
@@ -4376,7 +4469,7 @@
       <c r="J4" s="8"/>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="6" t="s">
         <v>160</v>
       </c>
@@ -4398,7 +4491,7 @@
       <c r="J5" s="8"/>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="6" t="s">
         <v>86</v>
       </c>
@@ -4420,7 +4513,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="6" t="s">
         <v>37</v>
       </c>
@@ -4440,23 +4533,23 @@
       <c r="J7" s="8"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="9" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="45" t="s">
         <v>163</v>
       </c>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-    </row>
-    <row r="10" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+    </row>
+    <row r="10" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
@@ -4488,7 +4581,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="6" t="s">
         <v>164</v>
       </c>
@@ -4516,7 +4609,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="6" t="s">
         <v>12</v>
       </c>
@@ -4540,7 +4633,7 @@
       <c r="J12" s="8"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="6" t="s">
         <v>165</v>
       </c>
@@ -4566,7 +4659,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="6" t="s">
         <v>83</v>
       </c>
@@ -4588,7 +4681,7 @@
       <c r="J14" s="8"/>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="6" t="s">
         <v>86</v>
       </c>
@@ -4612,7 +4705,7 @@
       <c r="J15" s="8"/>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="6" t="s">
         <v>168</v>
       </c>
@@ -4636,7 +4729,7 @@
       </c>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="6" t="s">
         <v>170</v>
       </c>
@@ -4660,7 +4753,7 @@
       </c>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="6" t="s">
         <v>172</v>
       </c>
@@ -4684,7 +4777,7 @@
       </c>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="6" t="s">
         <v>174</v>
       </c>
@@ -4710,7 +4803,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="6" t="s">
         <v>65</v>
       </c>
@@ -4730,7 +4823,7 @@
       <c r="J20" s="8"/>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="6" t="s">
         <v>177</v>
       </c>
@@ -4748,7 +4841,7 @@
       <c r="J21" s="8"/>
       <c r="K21" s="7"/>
     </row>
-    <row r="22" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="6" t="s">
         <v>37</v>
       </c>
@@ -4768,23 +4861,23 @@
       <c r="J22" s="8"/>
       <c r="K22" s="7"/>
     </row>
-    <row r="24" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C24" s="44" t="s">
+      <c r="C24" s="45" t="s">
         <v>180</v>
       </c>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-    </row>
-    <row r="25" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+    </row>
+    <row r="25" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="4" t="s">
         <v>2</v>
       </c>
@@ -4816,7 +4909,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="6" t="s">
         <v>78</v>
       </c>
@@ -4846,7 +4939,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="6" t="s">
         <v>164</v>
       </c>
@@ -4870,7 +4963,7 @@
       <c r="J27" s="8"/>
       <c r="K27" s="7"/>
     </row>
-    <row r="28" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="6" t="s">
         <v>12</v>
       </c>
@@ -4894,7 +4987,7 @@
       <c r="J28" s="8"/>
       <c r="K28" s="24"/>
     </row>
-    <row r="29" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="21" t="s">
         <v>16</v>
       </c>
@@ -4918,7 +5011,7 @@
       <c r="J29" s="23"/>
       <c r="K29" s="22"/>
     </row>
-    <row r="30" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="6" t="s">
         <v>165</v>
       </c>
@@ -4944,7 +5037,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="31" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="6" t="s">
         <v>83</v>
       </c>
@@ -4966,7 +5059,7 @@
       <c r="J31" s="8"/>
       <c r="K31" s="7"/>
     </row>
-    <row r="32" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="6" t="s">
         <v>86</v>
       </c>
@@ -4990,7 +5083,7 @@
       <c r="J32" s="8"/>
       <c r="K32" s="7"/>
     </row>
-    <row r="33" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="6" t="s">
         <v>183</v>
       </c>
@@ -5014,7 +5107,7 @@
       </c>
       <c r="K33" s="7"/>
     </row>
-    <row r="34" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="6" t="s">
         <v>112</v>
       </c>
@@ -5038,7 +5131,7 @@
       </c>
       <c r="K34" s="7"/>
     </row>
-    <row r="35" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="6" t="s">
         <v>185</v>
       </c>
@@ -5062,7 +5155,7 @@
       </c>
       <c r="K35" s="7"/>
     </row>
-    <row r="36" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="6" t="s">
         <v>65</v>
       </c>
@@ -5082,7 +5175,7 @@
       <c r="J36" s="8"/>
       <c r="K36" s="7"/>
     </row>
-    <row r="37" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="21" t="s">
         <v>187</v>
       </c>
@@ -5102,7 +5195,7 @@
       <c r="J37" s="8"/>
       <c r="K37" s="7"/>
     </row>
-    <row r="38" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="6" t="s">
         <v>37</v>
       </c>
@@ -5122,23 +5215,23 @@
       <c r="J38" s="8"/>
       <c r="K38" s="7"/>
     </row>
-    <row r="40" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="C40" s="44" t="s">
+      <c r="C40" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="44"/>
-    </row>
-    <row r="41" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="45"/>
+    </row>
+    <row r="41" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="4" t="s">
         <v>2</v>
       </c>
@@ -5170,7 +5263,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="6" t="s">
         <v>78</v>
       </c>
@@ -5200,7 +5293,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="6" t="s">
         <v>165</v>
       </c>
@@ -5226,7 +5319,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="44" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="6" t="s">
         <v>83</v>
       </c>
@@ -5248,7 +5341,7 @@
       <c r="J44" s="8"/>
       <c r="K44" s="7"/>
     </row>
-    <row r="45" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="6" t="s">
         <v>86</v>
       </c>
@@ -5272,7 +5365,7 @@
       <c r="J45" s="8"/>
       <c r="K45" s="7"/>
     </row>
-    <row r="46" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="6" t="s">
         <v>112</v>
       </c>
@@ -5296,7 +5389,7 @@
       </c>
       <c r="K46" s="7"/>
     </row>
-    <row r="47" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="6" t="s">
         <v>185</v>
       </c>
@@ -5320,7 +5413,7 @@
       </c>
       <c r="K47" s="7"/>
     </row>
-    <row r="48" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="6" t="s">
         <v>106</v>
       </c>
@@ -5342,7 +5435,7 @@
       <c r="J48" s="8"/>
       <c r="K48" s="7"/>
     </row>
-    <row r="49" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="6" t="s">
         <v>47</v>
       </c>
@@ -5364,7 +5457,7 @@
       <c r="J49" s="8"/>
       <c r="K49" s="7"/>
     </row>
-    <row r="50" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="6" t="s">
         <v>191</v>
       </c>
@@ -5390,7 +5483,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="51" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="6" t="s">
         <v>65</v>
       </c>
@@ -5410,7 +5503,7 @@
       <c r="J51" s="8"/>
       <c r="K51" s="7"/>
     </row>
-    <row r="52" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="6" t="s">
         <v>194</v>
       </c>
@@ -5430,7 +5523,7 @@
       <c r="J52" s="8"/>
       <c r="K52" s="7"/>
     </row>
-    <row r="53" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="6" t="s">
         <v>37</v>
       </c>
@@ -5450,23 +5543,23 @@
       <c r="J53" s="8"/>
       <c r="K53" s="7"/>
     </row>
-    <row r="55" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="C55" s="44" t="s">
+      <c r="C55" s="45" t="s">
         <v>197</v>
       </c>
-      <c r="D55" s="44"/>
-      <c r="E55" s="44"/>
-      <c r="F55" s="47"/>
-      <c r="G55" s="44"/>
-      <c r="H55" s="44"/>
-      <c r="I55" s="44"/>
-      <c r="J55" s="44"/>
-      <c r="K55" s="44"/>
-    </row>
-    <row r="56" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D55" s="45"/>
+      <c r="E55" s="45"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="45"/>
+      <c r="J55" s="45"/>
+      <c r="K55" s="45"/>
+    </row>
+    <row r="56" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="4" t="s">
         <v>2</v>
       </c>
@@ -5498,7 +5591,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="6" t="s">
         <v>78</v>
       </c>
@@ -5526,7 +5619,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="58" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="6" t="s">
         <v>165</v>
       </c>
@@ -5550,7 +5643,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="59" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B59" s="6" t="s">
         <v>83</v>
       </c>
@@ -5572,7 +5665,7 @@
       <c r="J59" s="8"/>
       <c r="K59" s="7"/>
     </row>
-    <row r="60" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="6" t="s">
         <v>183</v>
       </c>
@@ -5596,7 +5689,7 @@
       </c>
       <c r="K60" s="7"/>
     </row>
-    <row r="61" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="6" t="s">
         <v>112</v>
       </c>
@@ -5620,7 +5713,7 @@
       </c>
       <c r="K61" s="7"/>
     </row>
-    <row r="62" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="6" t="s">
         <v>185</v>
       </c>
@@ -5644,7 +5737,7 @@
       </c>
       <c r="K62" s="7"/>
     </row>
-    <row r="63" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="6" t="s">
         <v>37</v>
       </c>
@@ -5682,41 +5775,41 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K58"/>
+  <dimension ref="B2:K66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="44.109375" customWidth="1"/>
-    <col min="3" max="3" width="27.44140625" customWidth="1"/>
-    <col min="4" max="5" width="10.44140625" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" customWidth="1"/>
-    <col min="8" max="8" width="6.109375" customWidth="1"/>
-    <col min="9" max="10" width="8.33203125" customWidth="1"/>
+    <col min="2" max="2" width="44.125" customWidth="1"/>
+    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="4" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="6.125" customWidth="1"/>
+    <col min="7" max="7" width="8.375" customWidth="1"/>
+    <col min="8" max="8" width="6.125" customWidth="1"/>
+    <col min="9" max="10" width="8.375" customWidth="1"/>
     <col min="11" max="11" width="63" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="49" t="s">
         <v>199</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50"/>
-    </row>
-    <row r="3" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
+    </row>
+    <row r="3" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -5748,7 +5841,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="6" t="s">
         <v>53</v>
       </c>
@@ -5776,7 +5869,7 @@
       <c r="J4" s="8"/>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="6" t="s">
         <v>200</v>
       </c>
@@ -5800,7 +5893,7 @@
       <c r="J5" s="8"/>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="6" t="s">
         <v>201</v>
       </c>
@@ -5822,7 +5915,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="6" t="s">
         <v>47</v>
       </c>
@@ -5844,7 +5937,7 @@
       <c r="J7" s="8"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="6" t="s">
         <v>37</v>
       </c>
@@ -5864,7 +5957,7 @@
       <c r="J8" s="8"/>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="6" t="s">
         <v>203</v>
       </c>
@@ -5890,7 +5983,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="6" t="s">
         <v>206</v>
       </c>
@@ -5908,7 +6001,7 @@
       <c r="J10" s="8"/>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="2:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
@@ -5920,23 +6013,23 @@
       <c r="J11" s="8"/>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="45" t="s">
         <v>209</v>
       </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-    </row>
-    <row r="13" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+    </row>
+    <row r="13" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
@@ -5968,7 +6061,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="6" t="s">
         <v>53</v>
       </c>
@@ -5996,7 +6089,7 @@
       <c r="J14" s="8"/>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="6" t="s">
         <v>210</v>
       </c>
@@ -6018,7 +6111,7 @@
       <c r="J15" s="8"/>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="6" t="s">
         <v>212</v>
       </c>
@@ -6040,7 +6133,7 @@
       <c r="J16" s="8"/>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="6" t="s">
         <v>214</v>
       </c>
@@ -6060,7 +6153,7 @@
       <c r="J17" s="8"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="6" t="s">
         <v>216</v>
       </c>
@@ -6080,7 +6173,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="10" t="s">
         <v>218</v>
       </c>
@@ -6102,7 +6195,7 @@
       <c r="J19" s="8"/>
       <c r="K19" s="7"/>
     </row>
-    <row r="20" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="6" t="s">
         <v>37</v>
       </c>
@@ -6122,7 +6215,7 @@
       <c r="J20" s="8"/>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
@@ -6132,23 +6225,23 @@
       <c r="J21" s="11"/>
       <c r="K21" s="18"/>
     </row>
-    <row r="22" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="C22" s="44" t="s">
+      <c r="C22" s="45" t="s">
         <v>221</v>
       </c>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-    </row>
-    <row r="23" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+    </row>
+    <row r="23" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="4" t="s">
         <v>2</v>
       </c>
@@ -6180,7 +6273,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="6" t="s">
         <v>53</v>
       </c>
@@ -6208,7 +6301,7 @@
       <c r="J24" s="8"/>
       <c r="K24" s="7"/>
     </row>
-    <row r="25" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="6" t="s">
         <v>222</v>
       </c>
@@ -6230,7 +6323,7 @@
       <c r="J25" s="8"/>
       <c r="K25" s="7"/>
     </row>
-    <row r="26" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="6" t="s">
         <v>224</v>
       </c>
@@ -6252,7 +6345,7 @@
       <c r="J26" s="8"/>
       <c r="K26" s="7"/>
     </row>
-    <row r="27" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="6" t="s">
         <v>214</v>
       </c>
@@ -6272,7 +6365,7 @@
       <c r="J27" s="8"/>
       <c r="K27" s="7"/>
     </row>
-    <row r="28" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="6" t="s">
         <v>216</v>
       </c>
@@ -6292,7 +6385,7 @@
       <c r="J28" s="8"/>
       <c r="K28" s="7"/>
     </row>
-    <row r="29" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="6" t="s">
         <v>37</v>
       </c>
@@ -6312,7 +6405,7 @@
       <c r="J29" s="8"/>
       <c r="K29" s="7"/>
     </row>
-    <row r="30" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="6" t="s">
         <v>226</v>
       </c>
@@ -6330,7 +6423,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="19"/>
     </row>
-    <row r="31" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -6340,23 +6433,23 @@
       <c r="J31" s="11"/>
       <c r="K31" s="18"/>
     </row>
-    <row r="32" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="C32" s="51" t="s">
+      <c r="C32" s="52" t="s">
         <v>229</v>
       </c>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="53"/>
-    </row>
-    <row r="33" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="54"/>
+    </row>
+    <row r="33" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="4" t="s">
         <v>2</v>
       </c>
@@ -6388,7 +6481,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="6" t="s">
         <v>53</v>
       </c>
@@ -6416,7 +6509,7 @@
       <c r="J34" s="8"/>
       <c r="K34" s="7"/>
     </row>
-    <row r="35" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="6" t="s">
         <v>230</v>
       </c>
@@ -6438,7 +6531,7 @@
       <c r="J35" s="8"/>
       <c r="K35" s="7"/>
     </row>
-    <row r="36" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="6" t="s">
         <v>232</v>
       </c>
@@ -6460,7 +6553,7 @@
       <c r="J36" s="8"/>
       <c r="K36" s="7"/>
     </row>
-    <row r="37" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="6" t="s">
         <v>234</v>
       </c>
@@ -6482,7 +6575,7 @@
       <c r="J37" s="8"/>
       <c r="K37" s="7"/>
     </row>
-    <row r="38" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="6" t="s">
         <v>236</v>
       </c>
@@ -6502,7 +6595,7 @@
       <c r="J38" s="8"/>
       <c r="K38" s="7"/>
     </row>
-    <row r="39" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="6" t="s">
         <v>37</v>
       </c>
@@ -6522,7 +6615,7 @@
       <c r="J39" s="12"/>
       <c r="K39" s="19"/>
     </row>
-    <row r="40" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="6" t="s">
         <v>226</v>
       </c>
@@ -6540,7 +6633,7 @@
       <c r="J40" s="12"/>
       <c r="K40" s="19"/>
     </row>
-    <row r="41" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="15"/>
       <c r="C41" s="16"/>
       <c r="D41" s="17"/>
@@ -6552,23 +6645,23 @@
       <c r="J41" s="11"/>
       <c r="K41" s="18"/>
     </row>
-    <row r="42" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="C42" s="51" t="s">
+      <c r="C42" s="52" t="s">
         <v>239</v>
       </c>
-      <c r="D42" s="52"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="52"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="52"/>
-      <c r="J42" s="52"/>
-      <c r="K42" s="53"/>
-    </row>
-    <row r="43" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="53"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="54"/>
+    </row>
+    <row r="43" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="4" t="s">
         <v>2</v>
       </c>
@@ -6600,7 +6693,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="6" t="s">
         <v>53</v>
       </c>
@@ -6628,7 +6721,7 @@
       <c r="J44" s="8"/>
       <c r="K44" s="7"/>
     </row>
-    <row r="45" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="6" t="s">
         <v>232</v>
       </c>
@@ -6650,7 +6743,7 @@
       <c r="J45" s="8"/>
       <c r="K45" s="7"/>
     </row>
-    <row r="46" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="6" t="s">
         <v>230</v>
       </c>
@@ -6672,7 +6765,7 @@
       <c r="J46" s="8"/>
       <c r="K46" s="7"/>
     </row>
-    <row r="47" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="6" t="s">
         <v>234</v>
       </c>
@@ -6694,7 +6787,7 @@
       <c r="J47" s="8"/>
       <c r="K47" s="7"/>
     </row>
-    <row r="48" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="6" t="s">
         <v>236</v>
       </c>
@@ -6714,7 +6807,7 @@
       <c r="J48" s="8"/>
       <c r="K48" s="7"/>
     </row>
-    <row r="49" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="6" t="s">
         <v>37</v>
       </c>
@@ -6734,7 +6827,7 @@
       <c r="J49" s="12"/>
       <c r="K49" s="19"/>
     </row>
-    <row r="50" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="6" t="s">
         <v>226</v>
       </c>
@@ -6752,7 +6845,7 @@
       <c r="J50" s="12"/>
       <c r="K50" s="19"/>
     </row>
-    <row r="51" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="15"/>
       <c r="C51" s="16"/>
       <c r="D51" s="17"/>
@@ -6764,23 +6857,23 @@
       <c r="J51" s="11"/>
       <c r="K51" s="18"/>
     </row>
-    <row r="52" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="C52" s="44" t="s">
+      <c r="C52" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="D52" s="44"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="44"/>
-      <c r="G52" s="44"/>
-      <c r="H52" s="44"/>
-      <c r="I52" s="44"/>
-      <c r="J52" s="44"/>
-      <c r="K52" s="44"/>
-    </row>
-    <row r="53" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D52" s="45"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="45"/>
+      <c r="J52" s="45"/>
+      <c r="K52" s="45"/>
+    </row>
+    <row r="53" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="4" t="s">
         <v>2</v>
       </c>
@@ -6812,7 +6905,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="6" t="s">
         <v>53</v>
       </c>
@@ -6840,7 +6933,7 @@
       <c r="J54" s="8"/>
       <c r="K54" s="7"/>
     </row>
-    <row r="55" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="6" t="s">
         <v>246</v>
       </c>
@@ -6862,7 +6955,7 @@
       <c r="J55" s="8"/>
       <c r="K55" s="7"/>
     </row>
-    <row r="56" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="6" t="s">
         <v>248</v>
       </c>
@@ -6884,7 +6977,7 @@
       <c r="J56" s="8"/>
       <c r="K56" s="7"/>
     </row>
-    <row r="57" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="6" t="s">
         <v>236</v>
       </c>
@@ -6904,7 +6997,7 @@
       <c r="J57" s="8"/>
       <c r="K57" s="7"/>
     </row>
-    <row r="58" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="6" t="s">
         <v>37</v>
       </c>
@@ -6924,8 +7017,161 @@
       <c r="J58" s="12"/>
       <c r="K58" s="19"/>
     </row>
+    <row r="60" spans="2:11" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B60" s="59" t="s">
+        <v>252</v>
+      </c>
+      <c r="C60" s="60" t="s">
+        <v>253</v>
+      </c>
+      <c r="D60" s="61"/>
+      <c r="E60" s="61"/>
+      <c r="F60" s="61"/>
+      <c r="G60" s="61"/>
+      <c r="H60" s="61"/>
+      <c r="I60" s="61"/>
+      <c r="J60" s="61"/>
+      <c r="K60" s="62"/>
+    </row>
+    <row r="61" spans="2:11" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B61" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="G61" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="H61" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="I61" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="J61" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="K61" s="63" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B62" s="65" t="s">
+        <v>254</v>
+      </c>
+      <c r="C62" s="66" t="s">
+        <v>255</v>
+      </c>
+      <c r="D62" s="67" t="s">
+        <v>261</v>
+      </c>
+      <c r="E62" s="67">
+        <v>6</v>
+      </c>
+      <c r="F62" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="G62" s="67"/>
+      <c r="H62" s="67"/>
+      <c r="I62" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="J62" s="67"/>
+      <c r="K62" s="68" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B63" s="65" t="s">
+        <v>257</v>
+      </c>
+      <c r="C63" s="66" t="s">
+        <v>258</v>
+      </c>
+      <c r="D63" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" s="67">
+        <v>50</v>
+      </c>
+      <c r="F63" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63" s="67"/>
+      <c r="H63" s="67"/>
+      <c r="I63" s="67"/>
+      <c r="J63" s="67"/>
+      <c r="K63" s="65"/>
+    </row>
+    <row r="64" spans="2:11" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B64" s="65" t="s">
+        <v>259</v>
+      </c>
+      <c r="C64" s="66" t="s">
+        <v>260</v>
+      </c>
+      <c r="D64" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="E64" s="67" t="s">
+        <v>263</v>
+      </c>
+      <c r="F64" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="G64" s="67"/>
+      <c r="H64" s="67"/>
+      <c r="I64" s="67"/>
+      <c r="J64" s="67"/>
+      <c r="K64" s="65" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B65" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="C65" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="D65" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="E65" s="67"/>
+      <c r="F65" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="G65" s="67"/>
+      <c r="H65" s="67"/>
+      <c r="I65" s="67"/>
+      <c r="J65" s="67"/>
+      <c r="K65" s="65"/>
+    </row>
+    <row r="66" spans="2:11" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B66" s="58"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="18"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="C60:K60"/>
     <mergeCell ref="C52:K52"/>
     <mergeCell ref="C2:K2"/>
     <mergeCell ref="C12:K12"/>
@@ -6935,6 +7181,6 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.749305555555556" right="0.749305555555556" top="0.999305555555556" bottom="0.999305555555556" header="0.51041666666666696" footer="0.51041666666666696"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/document/交易大盘数据库设计表@20180228.xlsx
+++ b/document/交易大盘数据库设计表@20180228.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1230" yWindow="0" windowWidth="22950" windowHeight="9945" activeTab="3"/>
+    <workbookView xWindow="1230" yWindow="0" windowWidth="22950" windowHeight="9945" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="用户系统" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="265">
   <si>
     <t>user_tab</t>
   </si>
@@ -927,6 +927,10 @@
   </si>
   <si>
     <t>(18,8)_x000D_</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>userAccount</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1270,6 +1274,31 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1306,13 +1335,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1320,24 +1342,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1617,7 +1621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
@@ -1637,17 +1641,17 @@
       <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
@@ -1795,7 +1799,7 @@
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="46" t="s">
+      <c r="I8" s="55" t="s">
         <v>15</v>
       </c>
       <c r="J8" s="8"/>
@@ -1819,7 +1823,7 @@
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
-      <c r="I9" s="47"/>
+      <c r="I9" s="56"/>
       <c r="J9" s="8"/>
       <c r="K9" s="7"/>
     </row>
@@ -1937,17 +1941,17 @@
       <c r="B15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="51"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="60"/>
     </row>
     <row r="16" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="4" t="s">
@@ -2117,17 +2121,17 @@
       <c r="B23" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="52" t="s">
+      <c r="C23" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="54"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="63"/>
     </row>
     <row r="24" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="4" t="s">
@@ -2534,17 +2538,17 @@
       <c r="B43" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="55" t="s">
+      <c r="C43" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="D43" s="55"/>
-      <c r="E43" s="55"/>
-      <c r="F43" s="56"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="55"/>
-      <c r="I43" s="55"/>
-      <c r="J43" s="55"/>
-      <c r="K43" s="55"/>
+      <c r="D43" s="64"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="64"/>
+      <c r="H43" s="64"/>
+      <c r="I43" s="64"/>
+      <c r="J43" s="64"/>
+      <c r="K43" s="64"/>
     </row>
     <row r="44" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="32" t="s">
@@ -2796,17 +2800,17 @@
       <c r="B55" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C55" s="52" t="s">
+      <c r="C55" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="D55" s="53"/>
-      <c r="E55" s="53"/>
-      <c r="F55" s="53"/>
-      <c r="G55" s="53"/>
-      <c r="H55" s="53"/>
-      <c r="I55" s="53"/>
-      <c r="J55" s="53"/>
-      <c r="K55" s="54"/>
+      <c r="D55" s="62"/>
+      <c r="E55" s="62"/>
+      <c r="F55" s="62"/>
+      <c r="G55" s="62"/>
+      <c r="H55" s="62"/>
+      <c r="I55" s="62"/>
+      <c r="J55" s="62"/>
+      <c r="K55" s="63"/>
     </row>
     <row r="56" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="4" t="s">
@@ -3066,17 +3070,17 @@
       <c r="B68" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C68" s="45" t="s">
+      <c r="C68" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="D68" s="45"/>
-      <c r="E68" s="45"/>
-      <c r="F68" s="45"/>
-      <c r="G68" s="45"/>
-      <c r="H68" s="45"/>
-      <c r="I68" s="45"/>
-      <c r="J68" s="45"/>
-      <c r="K68" s="45"/>
+      <c r="D68" s="54"/>
+      <c r="E68" s="54"/>
+      <c r="F68" s="54"/>
+      <c r="G68" s="54"/>
+      <c r="H68" s="54"/>
+      <c r="I68" s="54"/>
+      <c r="J68" s="54"/>
+      <c r="K68" s="54"/>
     </row>
     <row r="69" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B69" s="4" t="s">
@@ -3260,17 +3264,17 @@
       <c r="B2" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
@@ -3436,17 +3440,17 @@
       <c r="B10" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="61" t="s">
         <v>128</v>
       </c>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="54"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="63"/>
     </row>
     <row r="11" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
@@ -3566,17 +3570,17 @@
       <c r="B16" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="C16" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
     </row>
     <row r="17" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="4" t="s">
@@ -3694,17 +3698,17 @@
       <c r="B22" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="C22" s="45" t="s">
+      <c r="C22" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
     </row>
     <row r="23" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="4" t="s">
@@ -3916,17 +3920,17 @@
       <c r="B32" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C32" s="52" t="s">
+      <c r="C32" s="61" t="s">
         <v>148</v>
       </c>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="54"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="63"/>
     </row>
     <row r="33" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="4" t="s">
@@ -4090,17 +4094,17 @@
       <c r="B40" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="C40" s="52" t="s">
+      <c r="C40" s="61" t="s">
         <v>152</v>
       </c>
-      <c r="D40" s="53"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="54"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="62"/>
+      <c r="J40" s="62"/>
+      <c r="K40" s="63"/>
     </row>
     <row r="41" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="4" t="s">
@@ -4379,10 +4383,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K63"/>
+  <dimension ref="B2:K64"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4397,17 +4401,17 @@
       <c r="B2" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
@@ -4537,17 +4541,17 @@
       <c r="B9" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="54" t="s">
         <v>163</v>
       </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
     </row>
     <row r="10" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
@@ -4634,107 +4638,107 @@
       <c r="K12" s="24"/>
     </row>
     <row r="13" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="8">
+      <c r="B13" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="C13" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="7" t="s">
-        <v>167</v>
-      </c>
+      <c r="D13" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="23">
+        <v>16</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="22"/>
     </row>
     <row r="14" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="6" t="s">
-        <v>83</v>
+        <v>165</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="E14" s="8">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="H14" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
-      <c r="K14" s="7"/>
+      <c r="K14" s="7" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="15" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E15" s="8">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G15" s="8"/>
-      <c r="H15" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="H15" s="8"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="7"/>
     </row>
     <row r="16" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="6" t="s">
-        <v>168</v>
+        <v>86</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>169</v>
+        <v>87</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>29</v>
+        <v>17</v>
+      </c>
+      <c r="E16" s="8">
+        <v>32</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+      <c r="H16" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="I16" s="8"/>
-      <c r="J16" s="8">
-        <v>0</v>
-      </c>
+      <c r="J16" s="8"/>
       <c r="K16" s="7"/>
     </row>
     <row r="17" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>28</v>
@@ -4755,10 +4759,10 @@
     </row>
     <row r="18" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>28</v>
@@ -4779,16 +4783,16 @@
     </row>
     <row r="19" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="8">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>15</v>
@@ -4797,45 +4801,51 @@
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8">
-        <v>1</v>
-      </c>
-      <c r="K19" s="25" t="s">
-        <v>176</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K19" s="7"/>
     </row>
     <row r="20" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="6" t="s">
-        <v>65</v>
+        <v>174</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>11</v>
+        <v>175</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E20" s="8">
-        <v>200</v>
-      </c>
-      <c r="F20" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="7"/>
+      <c r="J20" s="8">
+        <v>1</v>
+      </c>
+      <c r="K20" s="25" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="21" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="6" t="s">
-        <v>177</v>
+        <v>65</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>178</v>
+        <v>11</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="8"/>
+        <v>17</v>
+      </c>
+      <c r="E21" s="8">
+        <v>200</v>
+      </c>
       <c r="F21" s="8"/>
-      <c r="G21" s="12"/>
+      <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
@@ -4843,108 +4853,96 @@
     </row>
     <row r="22" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="6" t="s">
-        <v>37</v>
+        <v>177</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>75</v>
+        <v>178</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>39</v>
       </c>
       <c r="E22" s="8"/>
-      <c r="F22" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="F22" s="8"/>
       <c r="G22" s="12"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="7"/>
     </row>
-    <row r="24" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="9" t="s">
+    <row r="23" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="12"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="7"/>
+    </row>
+    <row r="25" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C24" s="45" t="s">
+      <c r="C25" s="54" t="s">
         <v>180</v>
       </c>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-    </row>
-    <row r="25" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="4" t="s">
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+    </row>
+    <row r="26" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D26" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E26" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F26" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G26" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H26" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I26" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="J26" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K25" s="4" t="s">
+      <c r="K26" s="4" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="8">
-        <v>18</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J26" s="8"/>
-      <c r="K26" s="24" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="27" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>181</v>
+        <v>78</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>17</v>
@@ -4955,26 +4953,32 @@
       <c r="F27" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="8"/>
+      <c r="G27" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="H27" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I27" s="8"/>
+      <c r="I27" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="J27" s="8"/>
-      <c r="K27" s="7"/>
+      <c r="K27" s="24" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="28" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>13</v>
+        <v>164</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>181</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E28" s="8">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>15</v>
@@ -4985,134 +4989,134 @@
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
-      <c r="K28" s="24"/>
+      <c r="K28" s="7"/>
     </row>
     <row r="29" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="8">
+        <v>11</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="24"/>
+    </row>
+    <row r="30" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C30" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D30" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E30" s="23">
         <v>16</v>
       </c>
-      <c r="F29" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="22"/>
-    </row>
-    <row r="30" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" s="8">
-        <v>1</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="7" t="s">
-        <v>182</v>
-      </c>
+      <c r="F30" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="22"/>
     </row>
     <row r="31" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="6" t="s">
-        <v>83</v>
+        <v>165</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="E31" s="8">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
+      <c r="H31" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
-      <c r="K31" s="7"/>
+      <c r="K31" s="7" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="32" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E32" s="8">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G32" s="8"/>
-      <c r="H32" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="H32" s="8"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="7"/>
     </row>
     <row r="33" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="6" t="s">
-        <v>183</v>
+        <v>86</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>184</v>
+        <v>87</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>29</v>
+        <v>17</v>
+      </c>
+      <c r="E33" s="8">
+        <v>32</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
+      <c r="H33" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="I33" s="8"/>
-      <c r="J33" s="8">
-        <v>0</v>
-      </c>
+      <c r="J33" s="8"/>
       <c r="K33" s="7"/>
     </row>
     <row r="34" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="6" t="s">
-        <v>112</v>
+        <v>183</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>28</v>
@@ -5133,10 +5137,10 @@
     </row>
     <row r="35" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="6" t="s">
-        <v>185</v>
+        <v>112</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>28</v>
@@ -5157,244 +5161,244 @@
     </row>
     <row r="36" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="6" t="s">
-        <v>65</v>
+        <v>185</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>11</v>
+        <v>186</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36" s="8">
-        <v>200</v>
-      </c>
-      <c r="F36" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
+      <c r="J36" s="8">
+        <v>0</v>
+      </c>
       <c r="K36" s="7"/>
     </row>
     <row r="37" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="D37" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
+      <c r="B37" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="8">
+        <v>200</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="7"/>
     </row>
     <row r="38" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D38" s="8" t="s">
+      <c r="B38" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="D38" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" s="12"/>
-      <c r="H38" s="8"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="7"/>
     </row>
-    <row r="40" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="9" t="s">
+    <row r="39" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="12"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="7"/>
+    </row>
+    <row r="41" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="C40" s="45" t="s">
+      <c r="C41" s="54" t="s">
         <v>190</v>
       </c>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="45"/>
-      <c r="K40" s="45"/>
-    </row>
-    <row r="41" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="4" t="s">
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="54"/>
+      <c r="K41" s="54"/>
+    </row>
+    <row r="42" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C42" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D42" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E42" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F42" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="G42" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H41" s="5" t="s">
+      <c r="H42" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I41" s="5" t="s">
+      <c r="I42" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J41" s="5" t="s">
+      <c r="J42" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K41" s="4" t="s">
+      <c r="K42" s="4" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E42" s="8">
-        <v>18</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J42" s="8"/>
-      <c r="K42" s="24" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="43" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>166</v>
+        <v>78</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E43" s="8">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F43" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G43" s="8"/>
+      <c r="G43" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="H43" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I43" s="8"/>
+      <c r="I43" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="J43" s="8"/>
-      <c r="K43" s="7" t="s">
-        <v>167</v>
+      <c r="K43" s="24" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="6" t="s">
-        <v>83</v>
+        <v>165</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="E44" s="8">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
+      <c r="H44" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
-      <c r="K44" s="7"/>
+      <c r="K44" s="7" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="45" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E45" s="8">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F45" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G45" s="8"/>
-      <c r="H45" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="H45" s="8"/>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="7"/>
     </row>
     <row r="46" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="6" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>173</v>
+        <v>87</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>29</v>
+        <v>17</v>
+      </c>
+      <c r="E46" s="8">
+        <v>32</v>
       </c>
       <c r="F46" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
+      <c r="H46" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="I46" s="8"/>
-      <c r="J46" s="8">
-        <v>0</v>
-      </c>
+      <c r="J46" s="8"/>
       <c r="K46" s="7"/>
     </row>
     <row r="47" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="6" t="s">
-        <v>185</v>
+        <v>112</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>28</v>
@@ -5415,16 +5419,16 @@
     </row>
     <row r="48" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="6" t="s">
-        <v>106</v>
+        <v>185</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E48" s="8">
-        <v>16</v>
+        <v>28</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F48" s="8" t="s">
         <v>15</v>
@@ -5432,21 +5436,23 @@
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
+      <c r="J48" s="8">
+        <v>0</v>
+      </c>
       <c r="K48" s="7"/>
     </row>
     <row r="49" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="6" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>48</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E49" s="8">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F49" s="8" t="s">
         <v>15</v>
@@ -5459,65 +5465,67 @@
     </row>
     <row r="50" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="6" t="s">
-        <v>191</v>
+        <v>47</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>192</v>
+        <v>48</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E50" s="8">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F50" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G50" s="8"/>
-      <c r="H50" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="H50" s="8"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
-      <c r="K50" s="25" t="s">
-        <v>193</v>
-      </c>
+      <c r="K50" s="7"/>
     </row>
     <row r="51" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="6" t="s">
-        <v>65</v>
+        <v>191</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>11</v>
+        <v>192</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E51" s="8">
-        <v>200</v>
-      </c>
-      <c r="F51" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
+      <c r="H51" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
-      <c r="K51" s="7"/>
+      <c r="K51" s="25" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="52" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="6" t="s">
-        <v>194</v>
+        <v>65</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>195</v>
+        <v>11</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G52" s="12"/>
+        <v>17</v>
+      </c>
+      <c r="E52" s="8">
+        <v>200</v>
+      </c>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
@@ -5525,10 +5533,10 @@
     </row>
     <row r="53" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="6" t="s">
-        <v>37</v>
+        <v>194</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>75</v>
+        <v>195</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>39</v>
@@ -5543,118 +5551,114 @@
       <c r="J53" s="8"/>
       <c r="K53" s="7"/>
     </row>
-    <row r="55" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="9" t="s">
+    <row r="54" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B54" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54" s="12"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="7"/>
+    </row>
+    <row r="56" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B56" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="C55" s="45" t="s">
+      <c r="C56" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="D55" s="45"/>
-      <c r="E55" s="45"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="45"/>
-      <c r="H55" s="45"/>
-      <c r="I55" s="45"/>
-      <c r="J55" s="45"/>
-      <c r="K55" s="45"/>
-    </row>
-    <row r="56" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="4" t="s">
+      <c r="D56" s="54"/>
+      <c r="E56" s="54"/>
+      <c r="F56" s="57"/>
+      <c r="G56" s="54"/>
+      <c r="H56" s="54"/>
+      <c r="I56" s="54"/>
+      <c r="J56" s="54"/>
+      <c r="K56" s="54"/>
+    </row>
+    <row r="57" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B57" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C57" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D57" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E57" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="F57" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G56" s="5" t="s">
+      <c r="G57" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H56" s="5" t="s">
+      <c r="H57" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I56" s="5" t="s">
+      <c r="I57" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J56" s="5" t="s">
+      <c r="J57" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K56" s="4" t="s">
+      <c r="K57" s="4" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="8">
-        <v>18</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I57" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J57" s="8"/>
-      <c r="K57" s="24" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>166</v>
+        <v>78</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E58" s="8">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F58" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
+      <c r="H58" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="J58" s="8"/>
-      <c r="K58" s="7" t="s">
-        <v>167</v>
+      <c r="K58" s="24" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B59" s="6" t="s">
-        <v>83</v>
+        <v>165</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="E59" s="8">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F59" s="8" t="s">
         <v>15</v>
@@ -5663,20 +5667,22 @@
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
-      <c r="K59" s="7"/>
+      <c r="K59" s="7" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="60" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="6" t="s">
-        <v>183</v>
+        <v>83</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>184</v>
+        <v>84</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>29</v>
+        <v>14</v>
+      </c>
+      <c r="E60" s="8">
+        <v>11</v>
       </c>
       <c r="F60" s="8" t="s">
         <v>15</v>
@@ -5684,17 +5690,15 @@
       <c r="G60" s="8"/>
       <c r="H60" s="8"/>
       <c r="I60" s="8"/>
-      <c r="J60" s="8">
-        <v>0</v>
-      </c>
+      <c r="J60" s="8"/>
       <c r="K60" s="7"/>
     </row>
     <row r="61" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="6" t="s">
-        <v>112</v>
+        <v>183</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>28</v>
@@ -5715,10 +5719,10 @@
     </row>
     <row r="62" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="6" t="s">
-        <v>185</v>
+        <v>112</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>28</v>
@@ -5739,37 +5743,61 @@
     </row>
     <row r="63" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8">
+        <v>0</v>
+      </c>
+      <c r="K63" s="7"/>
+    </row>
+    <row r="64" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B64" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C64" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D64" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G63" s="12"/>
-      <c r="H63" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="7"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G64" s="12"/>
+      <c r="H64" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="C2:K2"/>
     <mergeCell ref="C9:K9"/>
-    <mergeCell ref="C24:K24"/>
-    <mergeCell ref="C40:K40"/>
-    <mergeCell ref="C55:K55"/>
+    <mergeCell ref="C25:K25"/>
+    <mergeCell ref="C41:K41"/>
+    <mergeCell ref="C56:K56"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.749305555555556" bottom="0.749305555555556" header="0.29930555555555599" footer="0.29930555555555599"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5777,8 +5805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5797,17 +5825,17 @@
       <c r="B2" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="58" t="s">
         <v>199</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="60"/>
     </row>
     <row r="3" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
@@ -6017,17 +6045,17 @@
       <c r="B12" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="54" t="s">
         <v>209</v>
       </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
     </row>
     <row r="13" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="4" t="s">
@@ -6229,17 +6257,17 @@
       <c r="B22" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="C22" s="45" t="s">
+      <c r="C22" s="54" t="s">
         <v>221</v>
       </c>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
     </row>
     <row r="23" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="4" t="s">
@@ -6437,17 +6465,17 @@
       <c r="B32" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="C32" s="52" t="s">
+      <c r="C32" s="61" t="s">
         <v>229</v>
       </c>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="54"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="63"/>
     </row>
     <row r="33" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="4" t="s">
@@ -6649,17 +6677,17 @@
       <c r="B42" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="C42" s="52" t="s">
+      <c r="C42" s="61" t="s">
         <v>239</v>
       </c>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="53"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="54"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="62"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="62"/>
+      <c r="J42" s="62"/>
+      <c r="K42" s="63"/>
     </row>
     <row r="43" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="4" t="s">
@@ -6861,17 +6889,17 @@
       <c r="B52" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="C52" s="45" t="s">
+      <c r="C52" s="54" t="s">
         <v>245</v>
       </c>
-      <c r="D52" s="45"/>
-      <c r="E52" s="45"/>
-      <c r="F52" s="45"/>
-      <c r="G52" s="45"/>
-      <c r="H52" s="45"/>
-      <c r="I52" s="45"/>
-      <c r="J52" s="45"/>
-      <c r="K52" s="45"/>
+      <c r="D52" s="54"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="54"/>
+      <c r="H52" s="54"/>
+      <c r="I52" s="54"/>
+      <c r="J52" s="54"/>
+      <c r="K52" s="54"/>
     </row>
     <row r="53" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="4" t="s">
@@ -7017,148 +7045,148 @@
       <c r="J58" s="12"/>
       <c r="K58" s="19"/>
     </row>
-    <row r="60" spans="2:11" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="59" t="s">
+    <row r="60" spans="2:11" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B60" s="47" t="s">
         <v>252</v>
       </c>
-      <c r="C60" s="60" t="s">
+      <c r="C60" s="66" t="s">
         <v>253</v>
       </c>
-      <c r="D60" s="61"/>
-      <c r="E60" s="61"/>
-      <c r="F60" s="61"/>
-      <c r="G60" s="61"/>
-      <c r="H60" s="61"/>
-      <c r="I60" s="61"/>
-      <c r="J60" s="61"/>
-      <c r="K60" s="62"/>
-    </row>
-    <row r="61" spans="2:11" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="63" t="s">
+      <c r="D60" s="67"/>
+      <c r="E60" s="67"/>
+      <c r="F60" s="67"/>
+      <c r="G60" s="67"/>
+      <c r="H60" s="67"/>
+      <c r="I60" s="67"/>
+      <c r="J60" s="67"/>
+      <c r="K60" s="68"/>
+    </row>
+    <row r="61" spans="2:11" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B61" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C61" s="64" t="s">
+      <c r="C61" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D61" s="64" t="s">
+      <c r="D61" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="E61" s="64" t="s">
+      <c r="E61" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="F61" s="64" t="s">
+      <c r="F61" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="G61" s="64" t="s">
+      <c r="G61" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="H61" s="64" t="s">
+      <c r="H61" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="I61" s="64" t="s">
+      <c r="I61" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="J61" s="64" t="s">
+      <c r="J61" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="K61" s="63" t="s">
+      <c r="K61" s="48" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="2:11" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="65" t="s">
+    <row r="62" spans="2:11" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B62" s="50" t="s">
         <v>254</v>
       </c>
-      <c r="C62" s="66" t="s">
+      <c r="C62" s="51" t="s">
         <v>255</v>
       </c>
-      <c r="D62" s="67" t="s">
+      <c r="D62" s="52" t="s">
         <v>261</v>
       </c>
-      <c r="E62" s="67">
+      <c r="E62" s="52">
         <v>6</v>
       </c>
-      <c r="F62" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="G62" s="67"/>
-      <c r="H62" s="67"/>
-      <c r="I62" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="J62" s="67"/>
-      <c r="K62" s="68" t="s">
+      <c r="F62" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="G62" s="52"/>
+      <c r="H62" s="52"/>
+      <c r="I62" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="J62" s="52"/>
+      <c r="K62" s="53" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="63" spans="2:11" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="65" t="s">
+    <row r="63" spans="2:11" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B63" s="50" t="s">
         <v>257</v>
       </c>
-      <c r="C63" s="66" t="s">
+      <c r="C63" s="51" t="s">
         <v>258</v>
       </c>
-      <c r="D63" s="67" t="s">
+      <c r="D63" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="E63" s="67">
+      <c r="E63" s="52">
         <v>50</v>
       </c>
-      <c r="F63" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="G63" s="67"/>
-      <c r="H63" s="67"/>
-      <c r="I63" s="67"/>
-      <c r="J63" s="67"/>
-      <c r="K63" s="65"/>
-    </row>
-    <row r="64" spans="2:11" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="65" t="s">
+      <c r="F63" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63" s="52"/>
+      <c r="H63" s="52"/>
+      <c r="I63" s="52"/>
+      <c r="J63" s="52"/>
+      <c r="K63" s="50"/>
+    </row>
+    <row r="64" spans="2:11" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B64" s="50" t="s">
         <v>259</v>
       </c>
-      <c r="C64" s="66" t="s">
+      <c r="C64" s="51" t="s">
         <v>260</v>
       </c>
-      <c r="D64" s="67" t="s">
+      <c r="D64" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="E64" s="67" t="s">
+      <c r="E64" s="52" t="s">
         <v>263</v>
       </c>
-      <c r="F64" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="G64" s="67"/>
-      <c r="H64" s="67"/>
-      <c r="I64" s="67"/>
-      <c r="J64" s="67"/>
-      <c r="K64" s="65" t="s">
+      <c r="F64" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="G64" s="52"/>
+      <c r="H64" s="52"/>
+      <c r="I64" s="52"/>
+      <c r="J64" s="52"/>
+      <c r="K64" s="50" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="65" spans="2:11" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="65" t="s">
+    <row r="65" spans="2:11" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B65" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C65" s="66" t="s">
+      <c r="C65" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="D65" s="67" t="s">
+      <c r="D65" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="E65" s="67"/>
-      <c r="F65" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="G65" s="67"/>
-      <c r="H65" s="67"/>
-      <c r="I65" s="67"/>
-      <c r="J65" s="67"/>
-      <c r="K65" s="65"/>
-    </row>
-    <row r="66" spans="2:11" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="58"/>
+      <c r="E65" s="52"/>
+      <c r="F65" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="G65" s="52"/>
+      <c r="H65" s="52"/>
+      <c r="I65" s="52"/>
+      <c r="J65" s="52"/>
+      <c r="K65" s="50"/>
+    </row>
+    <row r="66" spans="2:11" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B66" s="46"/>
       <c r="C66" s="18"/>
       <c r="D66" s="11"/>
       <c r="E66" s="11"/>
